--- a/Libro1.xlsx
+++ b/Libro1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\softwareProyecto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Neneco\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BF55D27-EAB0-4FFE-887B-54E3D16B679B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAC96BA4-719A-4D03-8620-63FB8C367479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7F645A55-2B9A-4592-9DCD-F528B75AEBB9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="22">
   <si>
     <t>User ID</t>
   </si>
@@ -483,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF8DA833-3C0F-476B-AE48-EB5CC07EE464}">
-  <dimension ref="A1:I301"/>
+  <dimension ref="A1:I249"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="A305" workbookViewId="0">
+      <selection activeCell="A102" sqref="A102:F249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -529,7 +529,7 @@
         <v>45439</v>
       </c>
       <c r="D2" s="4">
-        <v>0.34027777777777779</v>
+        <v>0.3263888888888889</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>7</v>
@@ -774,7 +774,7 @@
         <v>45439</v>
       </c>
       <c r="D14" s="4">
-        <v>0.58680555555555558</v>
+        <v>0.50347222222222221</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>7</v>
@@ -1014,7 +1014,7 @@
         <v>45439</v>
       </c>
       <c r="D26" s="4">
-        <v>0.58680555555555558</v>
+        <v>0.57638888888888884</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>7</v>
@@ -2531,7 +2531,7 @@
         <v>6</v>
       </c>
       <c r="C102" s="3">
-        <v>45441</v>
+        <v>45442</v>
       </c>
       <c r="D102" s="4">
         <v>0.3263888888888889</v>
@@ -2551,7 +2551,7 @@
         <v>9</v>
       </c>
       <c r="C103" s="3">
-        <v>45441</v>
+        <v>45442</v>
       </c>
       <c r="D103" s="4">
         <v>0.3263888888888889</v>
@@ -2571,7 +2571,7 @@
         <v>10</v>
       </c>
       <c r="C104" s="3">
-        <v>45441</v>
+        <v>45442</v>
       </c>
       <c r="D104" s="4">
         <v>0.3263888888888889</v>
@@ -2591,7 +2591,7 @@
         <v>11</v>
       </c>
       <c r="C105" s="3">
-        <v>45441</v>
+        <v>45442</v>
       </c>
       <c r="D105" s="4">
         <v>0.3263888888888889</v>
@@ -2611,7 +2611,7 @@
         <v>12</v>
       </c>
       <c r="C106" s="3">
-        <v>45441</v>
+        <v>45442</v>
       </c>
       <c r="D106" s="4">
         <v>0.3263888888888889</v>
@@ -2631,7 +2631,7 @@
         <v>13</v>
       </c>
       <c r="C107" s="3">
-        <v>45441</v>
+        <v>45442</v>
       </c>
       <c r="D107" s="4">
         <v>0.3263888888888889</v>
@@ -2651,7 +2651,7 @@
         <v>14</v>
       </c>
       <c r="C108" s="3">
-        <v>45441</v>
+        <v>45442</v>
       </c>
       <c r="D108" s="4">
         <v>0.3263888888888889</v>
@@ -2665,13 +2665,13 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C109" s="3">
-        <v>45441</v>
+        <v>45442</v>
       </c>
       <c r="D109" s="4">
         <v>0.3263888888888889</v>
@@ -2685,13 +2685,13 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C110" s="3">
-        <v>45441</v>
+        <v>45442</v>
       </c>
       <c r="D110" s="4">
         <v>0.3263888888888889</v>
@@ -2705,13 +2705,13 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C111" s="3">
-        <v>45441</v>
+        <v>45442</v>
       </c>
       <c r="D111" s="4">
         <v>0.3263888888888889</v>
@@ -2725,13 +2725,13 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C112" s="3">
-        <v>45441</v>
+        <v>45442</v>
       </c>
       <c r="D112" s="4">
         <v>0.3263888888888889</v>
@@ -2745,13 +2745,13 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C113" s="3">
-        <v>45441</v>
+        <v>45442</v>
       </c>
       <c r="D113" s="4">
         <v>0.3263888888888889</v>
@@ -2765,33 +2765,33 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C114" s="3">
-        <v>45441</v>
+        <v>45442</v>
       </c>
       <c r="D114" s="4">
-        <v>0.3263888888888889</v>
+        <v>0.50347222222222221</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F114" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C115" s="3">
-        <v>45441</v>
+        <v>45442</v>
       </c>
       <c r="D115" s="4">
         <v>0.50347222222222221</v>
@@ -2805,13 +2805,13 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C116" s="3">
-        <v>45441</v>
+        <v>45442</v>
       </c>
       <c r="D116" s="4">
         <v>0.50347222222222221</v>
@@ -2825,13 +2825,13 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C117" s="3">
-        <v>45441</v>
+        <v>45442</v>
       </c>
       <c r="D117" s="4">
         <v>0.50347222222222221</v>
@@ -2845,13 +2845,13 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C118" s="3">
-        <v>45441</v>
+        <v>45442</v>
       </c>
       <c r="D118" s="4">
         <v>0.50347222222222221</v>
@@ -2865,13 +2865,13 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C119" s="3">
-        <v>45441</v>
+        <v>45442</v>
       </c>
       <c r="D119" s="4">
         <v>0.50347222222222221</v>
@@ -2885,13 +2885,13 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C120" s="3">
-        <v>45441</v>
+        <v>45442</v>
       </c>
       <c r="D120" s="4">
         <v>0.50347222222222221</v>
@@ -2905,13 +2905,13 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C121" s="3">
-        <v>45441</v>
+        <v>45442</v>
       </c>
       <c r="D121" s="4">
         <v>0.50347222222222221</v>
@@ -2925,13 +2925,13 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C122" s="3">
-        <v>45441</v>
+        <v>45442</v>
       </c>
       <c r="D122" s="4">
         <v>0.50347222222222221</v>
@@ -2945,13 +2945,13 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C123" s="3">
-        <v>45441</v>
+        <v>45442</v>
       </c>
       <c r="D123" s="4">
         <v>0.50347222222222221</v>
@@ -2965,13 +2965,13 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C124" s="3">
-        <v>45441</v>
+        <v>45442</v>
       </c>
       <c r="D124" s="4">
         <v>0.50347222222222221</v>
@@ -2985,13 +2985,13 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C125" s="3">
-        <v>45441</v>
+        <v>45442</v>
       </c>
       <c r="D125" s="4">
         <v>0.50347222222222221</v>
@@ -3005,53 +3005,53 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C126" s="3">
-        <v>45441</v>
+        <v>45442</v>
       </c>
       <c r="D126" s="4">
-        <v>0.50347222222222221</v>
+        <v>0.57638888888888884</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F126" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C127" s="3">
-        <v>45441</v>
+        <v>45442</v>
       </c>
       <c r="D127" s="4">
-        <v>0.50347222222222221</v>
+        <v>0.57638888888888884</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F127" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C128" s="3">
-        <v>45441</v>
+        <v>45442</v>
       </c>
       <c r="D128" s="4">
         <v>0.57638888888888884</v>
@@ -3065,13 +3065,13 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C129" s="3">
-        <v>45441</v>
+        <v>45442</v>
       </c>
       <c r="D129" s="4">
         <v>0.57638888888888884</v>
@@ -3085,13 +3085,13 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C130" s="3">
-        <v>45441</v>
+        <v>45442</v>
       </c>
       <c r="D130" s="4">
         <v>0.57638888888888884</v>
@@ -3105,13 +3105,13 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C131" s="3">
-        <v>45441</v>
+        <v>45442</v>
       </c>
       <c r="D131" s="4">
         <v>0.57638888888888884</v>
@@ -3125,13 +3125,13 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C132" s="3">
-        <v>45441</v>
+        <v>45442</v>
       </c>
       <c r="D132" s="4">
         <v>0.57638888888888884</v>
@@ -3145,13 +3145,13 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C133" s="3">
-        <v>45441</v>
+        <v>45442</v>
       </c>
       <c r="D133" s="4">
         <v>0.57638888888888884</v>
@@ -3165,13 +3165,13 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C134" s="3">
-        <v>45441</v>
+        <v>45442</v>
       </c>
       <c r="D134" s="4">
         <v>0.57638888888888884</v>
@@ -3185,13 +3185,13 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C135" s="3">
-        <v>45441</v>
+        <v>45442</v>
       </c>
       <c r="D135" s="4">
         <v>0.57638888888888884</v>
@@ -3205,13 +3205,13 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C136" s="3">
-        <v>45441</v>
+        <v>45442</v>
       </c>
       <c r="D136" s="4">
         <v>0.57638888888888884</v>
@@ -3225,13 +3225,13 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C137" s="3">
-        <v>45441</v>
+        <v>45442</v>
       </c>
       <c r="D137" s="4">
         <v>0.57638888888888884</v>
@@ -3245,73 +3245,73 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C138" s="3">
-        <v>45441</v>
+        <v>45442</v>
       </c>
       <c r="D138" s="4">
-        <v>0.57638888888888884</v>
+        <v>0.75347222222222221</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F138" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C139" s="3">
-        <v>45441</v>
+        <v>45442</v>
       </c>
       <c r="D139" s="4">
-        <v>0.57638888888888884</v>
+        <v>0.75347222222222221</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F139" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C140" s="3">
-        <v>45441</v>
+        <v>45442</v>
       </c>
       <c r="D140" s="4">
-        <v>0.57638888888888884</v>
+        <v>0.75347222222222221</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F140" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C141" s="3">
-        <v>45441</v>
+        <v>45442</v>
       </c>
       <c r="D141" s="4">
         <v>0.75347222222222221</v>
@@ -3325,13 +3325,13 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C142" s="3">
-        <v>45441</v>
+        <v>45442</v>
       </c>
       <c r="D142" s="4">
         <v>0.75347222222222221</v>
@@ -3345,13 +3345,13 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C143" s="3">
-        <v>45441</v>
+        <v>45442</v>
       </c>
       <c r="D143" s="4">
         <v>0.75347222222222221</v>
@@ -3365,13 +3365,13 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C144" s="3">
-        <v>45441</v>
+        <v>45442</v>
       </c>
       <c r="D144" s="4">
         <v>0.75347222222222221</v>
@@ -3385,13 +3385,13 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C145" s="3">
-        <v>45441</v>
+        <v>45442</v>
       </c>
       <c r="D145" s="4">
         <v>0.75347222222222221</v>
@@ -3405,13 +3405,13 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C146" s="3">
-        <v>45441</v>
+        <v>45442</v>
       </c>
       <c r="D146" s="4">
         <v>0.75347222222222221</v>
@@ -3425,13 +3425,13 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C147" s="3">
-        <v>45441</v>
+        <v>45442</v>
       </c>
       <c r="D147" s="4">
         <v>0.75347222222222221</v>
@@ -3445,13 +3445,13 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C148" s="3">
-        <v>45441</v>
+        <v>45442</v>
       </c>
       <c r="D148" s="4">
         <v>0.75347222222222221</v>
@@ -3465,13 +3465,13 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C149" s="3">
-        <v>45441</v>
+        <v>45442</v>
       </c>
       <c r="D149" s="4">
         <v>0.75347222222222221</v>
@@ -3485,93 +3485,93 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C150" s="3">
-        <v>45441</v>
+        <v>45443</v>
       </c>
       <c r="D150" s="4">
-        <v>0.75347222222222221</v>
+        <v>0.3263888888888889</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F150" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C151" s="3">
-        <v>45441</v>
+        <v>45443</v>
       </c>
       <c r="D151" s="4">
-        <v>0.75347222222222221</v>
+        <v>0.3263888888888889</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F151" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C152" s="3">
-        <v>45441</v>
+        <v>45443</v>
       </c>
       <c r="D152" s="4">
-        <v>0.75347222222222221</v>
+        <v>0.3263888888888889</v>
       </c>
       <c r="E152" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F152" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C153" s="3">
-        <v>45441</v>
+        <v>45443</v>
       </c>
       <c r="D153" s="4">
-        <v>0.75347222222222221</v>
+        <v>0.3263888888888889</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F153" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C154" s="3">
-        <v>45442</v>
+        <v>45443</v>
       </c>
       <c r="D154" s="4">
         <v>0.3263888888888889</v>
@@ -3585,13 +3585,13 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C155" s="3">
-        <v>45442</v>
+        <v>45443</v>
       </c>
       <c r="D155" s="4">
         <v>0.3263888888888889</v>
@@ -3605,13 +3605,13 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C156" s="3">
-        <v>45442</v>
+        <v>45443</v>
       </c>
       <c r="D156" s="4">
         <v>0.3263888888888889</v>
@@ -3625,13 +3625,13 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C157" s="3">
-        <v>45442</v>
+        <v>45443</v>
       </c>
       <c r="D157" s="4">
         <v>0.3263888888888889</v>
@@ -3645,13 +3645,13 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C158" s="3">
-        <v>45442</v>
+        <v>45443</v>
       </c>
       <c r="D158" s="4">
         <v>0.3263888888888889</v>
@@ -3665,13 +3665,13 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C159" s="3">
-        <v>45442</v>
+        <v>45443</v>
       </c>
       <c r="D159" s="4">
         <v>0.3263888888888889</v>
@@ -3685,13 +3685,13 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C160" s="3">
-        <v>45442</v>
+        <v>45443</v>
       </c>
       <c r="D160" s="4">
         <v>0.3263888888888889</v>
@@ -3705,13 +3705,13 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C161" s="3">
-        <v>45442</v>
+        <v>45443</v>
       </c>
       <c r="D161" s="4">
         <v>0.3263888888888889</v>
@@ -3725,93 +3725,93 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C162" s="3">
-        <v>45442</v>
+        <v>45443</v>
       </c>
       <c r="D162" s="4">
-        <v>0.3263888888888889</v>
+        <v>0.50347222222222221</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F162" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C163" s="3">
-        <v>45442</v>
+        <v>45443</v>
       </c>
       <c r="D163" s="4">
-        <v>0.3263888888888889</v>
+        <v>0.50347222222222221</v>
       </c>
       <c r="E163" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F163" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C164" s="3">
-        <v>45442</v>
+        <v>45443</v>
       </c>
       <c r="D164" s="4">
-        <v>0.3263888888888889</v>
+        <v>0.50347222222222221</v>
       </c>
       <c r="E164" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F164" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C165" s="3">
-        <v>45442</v>
+        <v>45443</v>
       </c>
       <c r="D165" s="4">
-        <v>0.3263888888888889</v>
+        <v>0.50347222222222221</v>
       </c>
       <c r="E165" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F165" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C166" s="3">
-        <v>45442</v>
+        <v>45443</v>
       </c>
       <c r="D166" s="4">
         <v>0.50347222222222221</v>
@@ -3825,13 +3825,13 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C167" s="3">
-        <v>45442</v>
+        <v>45443</v>
       </c>
       <c r="D167" s="4">
         <v>0.50347222222222221</v>
@@ -3845,13 +3845,13 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C168" s="3">
-        <v>45442</v>
+        <v>45443</v>
       </c>
       <c r="D168" s="4">
         <v>0.50347222222222221</v>
@@ -3865,13 +3865,13 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C169" s="3">
-        <v>45442</v>
+        <v>45443</v>
       </c>
       <c r="D169" s="4">
         <v>0.50347222222222221</v>
@@ -3885,13 +3885,13 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C170" s="3">
-        <v>45442</v>
+        <v>45443</v>
       </c>
       <c r="D170" s="4">
         <v>0.50347222222222221</v>
@@ -3905,13 +3905,13 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C171" s="3">
-        <v>45442</v>
+        <v>45443</v>
       </c>
       <c r="D171" s="4">
         <v>0.50347222222222221</v>
@@ -3925,13 +3925,13 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C172" s="3">
-        <v>45442</v>
+        <v>45443</v>
       </c>
       <c r="D172" s="4">
         <v>0.50347222222222221</v>
@@ -3945,13 +3945,13 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C173" s="3">
-        <v>45442</v>
+        <v>45443</v>
       </c>
       <c r="D173" s="4">
         <v>0.50347222222222221</v>
@@ -3965,93 +3965,93 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C174" s="3">
-        <v>45442</v>
+        <v>45443</v>
       </c>
       <c r="D174" s="4">
-        <v>0.50347222222222221</v>
+        <v>0.57638888888888884</v>
       </c>
       <c r="E174" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F174" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C175" s="3">
-        <v>45442</v>
+        <v>45443</v>
       </c>
       <c r="D175" s="4">
-        <v>0.50347222222222221</v>
+        <v>0.57638888888888884</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F175" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C176" s="3">
-        <v>45442</v>
+        <v>45443</v>
       </c>
       <c r="D176" s="4">
-        <v>0.50347222222222221</v>
+        <v>0.57638888888888884</v>
       </c>
       <c r="E176" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F176" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C177" s="3">
-        <v>45442</v>
+        <v>45443</v>
       </c>
       <c r="D177" s="4">
-        <v>0.50347222222222221</v>
+        <v>0.57638888888888884</v>
       </c>
       <c r="E177" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F177" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C178" s="3">
-        <v>45442</v>
+        <v>45443</v>
       </c>
       <c r="D178" s="4">
         <v>0.57638888888888884</v>
@@ -4065,13 +4065,13 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C179" s="3">
-        <v>45442</v>
+        <v>45443</v>
       </c>
       <c r="D179" s="4">
         <v>0.57638888888888884</v>
@@ -4085,13 +4085,13 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C180" s="3">
-        <v>45442</v>
+        <v>45443</v>
       </c>
       <c r="D180" s="4">
         <v>0.57638888888888884</v>
@@ -4105,13 +4105,13 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C181" s="3">
-        <v>45442</v>
+        <v>45443</v>
       </c>
       <c r="D181" s="4">
         <v>0.57638888888888884</v>
@@ -4125,13 +4125,13 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C182" s="3">
-        <v>45442</v>
+        <v>45443</v>
       </c>
       <c r="D182" s="4">
         <v>0.57638888888888884</v>
@@ -4145,13 +4145,13 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C183" s="3">
-        <v>45442</v>
+        <v>45443</v>
       </c>
       <c r="D183" s="4">
         <v>0.57638888888888884</v>
@@ -4165,13 +4165,13 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C184" s="3">
-        <v>45442</v>
+        <v>45443</v>
       </c>
       <c r="D184" s="4">
         <v>0.57638888888888884</v>
@@ -4185,13 +4185,13 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C185" s="3">
-        <v>45442</v>
+        <v>45443</v>
       </c>
       <c r="D185" s="4">
         <v>0.57638888888888884</v>
@@ -4205,93 +4205,93 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C186" s="3">
-        <v>45442</v>
+        <v>45443</v>
       </c>
       <c r="D186" s="4">
-        <v>0.57638888888888884</v>
+        <v>0.75347222222222221</v>
       </c>
       <c r="E186" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F186" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C187" s="3">
-        <v>45442</v>
+        <v>45443</v>
       </c>
       <c r="D187" s="4">
-        <v>0.57638888888888884</v>
+        <v>0.75347222222222221</v>
       </c>
       <c r="E187" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F187" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C188" s="3">
-        <v>45442</v>
+        <v>45443</v>
       </c>
       <c r="D188" s="4">
-        <v>0.57638888888888884</v>
+        <v>0.75347222222222221</v>
       </c>
       <c r="E188" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F188" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C189" s="3">
-        <v>45442</v>
+        <v>45443</v>
       </c>
       <c r="D189" s="4">
-        <v>0.57638888888888884</v>
+        <v>0.75347222222222221</v>
       </c>
       <c r="E189" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F189" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C190" s="3">
-        <v>45442</v>
+        <v>45443</v>
       </c>
       <c r="D190" s="4">
         <v>0.75347222222222221</v>
@@ -4305,13 +4305,13 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C191" s="3">
-        <v>45442</v>
+        <v>45443</v>
       </c>
       <c r="D191" s="4">
         <v>0.75347222222222221</v>
@@ -4325,13 +4325,13 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C192" s="3">
-        <v>45442</v>
+        <v>45443</v>
       </c>
       <c r="D192" s="4">
         <v>0.75347222222222221</v>
@@ -4345,13 +4345,13 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C193" s="3">
-        <v>45442</v>
+        <v>45443</v>
       </c>
       <c r="D193" s="4">
         <v>0.75347222222222221</v>
@@ -4365,13 +4365,13 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C194" s="3">
-        <v>45442</v>
+        <v>45443</v>
       </c>
       <c r="D194" s="4">
         <v>0.75347222222222221</v>
@@ -4385,13 +4385,13 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C195" s="3">
-        <v>45442</v>
+        <v>45443</v>
       </c>
       <c r="D195" s="4">
         <v>0.75347222222222221</v>
@@ -4405,13 +4405,13 @@
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C196" s="3">
-        <v>45442</v>
+        <v>45443</v>
       </c>
       <c r="D196" s="4">
         <v>0.75347222222222221</v>
@@ -4425,13 +4425,13 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C197" s="3">
-        <v>45442</v>
+        <v>45443</v>
       </c>
       <c r="D197" s="4">
         <v>0.75347222222222221</v>
@@ -4445,93 +4445,93 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C198" s="3">
-        <v>45442</v>
+        <v>45444</v>
       </c>
       <c r="D198" s="4">
-        <v>0.75347222222222221</v>
+        <v>0.3125</v>
       </c>
       <c r="E198" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F198" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C199" s="3">
-        <v>45442</v>
+        <v>45444</v>
       </c>
       <c r="D199" s="4">
-        <v>0.75347222222222221</v>
+        <v>0.3125</v>
       </c>
       <c r="E199" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F199" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C200" s="3">
-        <v>45442</v>
+        <v>45444</v>
       </c>
       <c r="D200" s="4">
-        <v>0.75347222222222221</v>
+        <v>0.3263888888888889</v>
       </c>
       <c r="E200" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F200" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C201" s="3">
-        <v>45442</v>
+        <v>45444</v>
       </c>
       <c r="D201" s="4">
-        <v>0.75347222222222221</v>
+        <v>0.3263888888888889</v>
       </c>
       <c r="E201" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F201" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C202" s="3">
-        <v>45443</v>
+        <v>45444</v>
       </c>
       <c r="D202" s="4">
         <v>0.3263888888888889</v>
@@ -4545,13 +4545,13 @@
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C203" s="3">
-        <v>45443</v>
+        <v>45444</v>
       </c>
       <c r="D203" s="4">
         <v>0.3263888888888889</v>
@@ -4565,13 +4565,13 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C204" s="3">
-        <v>45443</v>
+        <v>45444</v>
       </c>
       <c r="D204" s="4">
         <v>0.3263888888888889</v>
@@ -4585,13 +4585,13 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C205" s="3">
-        <v>45443</v>
+        <v>45444</v>
       </c>
       <c r="D205" s="4">
         <v>0.3263888888888889</v>
@@ -4605,13 +4605,13 @@
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C206" s="3">
-        <v>45443</v>
+        <v>45444</v>
       </c>
       <c r="D206" s="4">
         <v>0.3263888888888889</v>
@@ -4625,13 +4625,13 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C207" s="3">
-        <v>45443</v>
+        <v>45444</v>
       </c>
       <c r="D207" s="4">
         <v>0.3263888888888889</v>
@@ -4645,13 +4645,13 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C208" s="3">
-        <v>45443</v>
+        <v>45444</v>
       </c>
       <c r="D208" s="4">
         <v>0.3263888888888889</v>
@@ -4665,13 +4665,13 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C209" s="3">
-        <v>45443</v>
+        <v>45444</v>
       </c>
       <c r="D209" s="4">
         <v>0.3263888888888889</v>
@@ -4685,13 +4685,13 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C210" s="3">
-        <v>45443</v>
+        <v>45444</v>
       </c>
       <c r="D210" s="4">
         <v>0.3263888888888889</v>
@@ -4705,73 +4705,73 @@
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C211" s="3">
-        <v>45443</v>
+        <v>45444</v>
       </c>
       <c r="D211" s="4">
-        <v>0.3263888888888889</v>
+        <v>0.52777777777777779</v>
       </c>
       <c r="E211" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F211" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C212" s="3">
-        <v>45443</v>
+        <v>45444</v>
       </c>
       <c r="D212" s="4">
-        <v>0.3263888888888889</v>
+        <v>0.5</v>
       </c>
       <c r="E212" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F212" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C213" s="3">
-        <v>45443</v>
+        <v>45444</v>
       </c>
       <c r="D213" s="4">
-        <v>0.3263888888888889</v>
+        <v>0.50347222222222221</v>
       </c>
       <c r="E213" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F213" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C214" s="3">
-        <v>45443</v>
+        <v>45444</v>
       </c>
       <c r="D214" s="4">
         <v>0.50347222222222221</v>
@@ -4785,13 +4785,13 @@
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C215" s="3">
-        <v>45443</v>
+        <v>45444</v>
       </c>
       <c r="D215" s="4">
         <v>0.50347222222222221</v>
@@ -4805,13 +4805,13 @@
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C216" s="3">
-        <v>45443</v>
+        <v>45444</v>
       </c>
       <c r="D216" s="4">
         <v>0.50347222222222221</v>
@@ -4825,13 +4825,13 @@
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C217" s="3">
-        <v>45443</v>
+        <v>45444</v>
       </c>
       <c r="D217" s="4">
         <v>0.50347222222222221</v>
@@ -4845,13 +4845,13 @@
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C218" s="3">
-        <v>45443</v>
+        <v>45444</v>
       </c>
       <c r="D218" s="4">
         <v>0.50347222222222221</v>
@@ -4865,13 +4865,13 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C219" s="3">
-        <v>45443</v>
+        <v>45444</v>
       </c>
       <c r="D219" s="4">
         <v>0.50347222222222221</v>
@@ -4885,13 +4885,13 @@
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C220" s="3">
-        <v>45443</v>
+        <v>45444</v>
       </c>
       <c r="D220" s="4">
         <v>0.50347222222222221</v>
@@ -4905,13 +4905,13 @@
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C221" s="3">
-        <v>45443</v>
+        <v>45444</v>
       </c>
       <c r="D221" s="4">
         <v>0.50347222222222221</v>
@@ -4925,13 +4925,13 @@
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C222" s="3">
-        <v>45443</v>
+        <v>45444</v>
       </c>
       <c r="D222" s="4">
         <v>0.50347222222222221</v>
@@ -4945,13 +4945,13 @@
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C223" s="3">
-        <v>45443</v>
+        <v>45444</v>
       </c>
       <c r="D223" s="4">
         <v>0.50347222222222221</v>
@@ -4965,53 +4965,53 @@
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C224" s="3">
-        <v>45443</v>
+        <v>45444</v>
       </c>
       <c r="D224" s="4">
-        <v>0.50347222222222221</v>
+        <v>0.57638888888888884</v>
       </c>
       <c r="E224" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F224" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C225" s="3">
-        <v>45443</v>
+        <v>45444</v>
       </c>
       <c r="D225" s="4">
-        <v>0.50347222222222221</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="E225" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F225" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C226" s="3">
-        <v>45443</v>
+        <v>45444</v>
       </c>
       <c r="D226" s="4">
         <v>0.57638888888888884</v>
@@ -5025,13 +5025,13 @@
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C227" s="3">
-        <v>45443</v>
+        <v>45444</v>
       </c>
       <c r="D227" s="4">
         <v>0.57638888888888884</v>
@@ -5045,13 +5045,13 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C228" s="3">
-        <v>45443</v>
+        <v>45444</v>
       </c>
       <c r="D228" s="4">
         <v>0.57638888888888884</v>
@@ -5065,13 +5065,13 @@
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C229" s="3">
-        <v>45443</v>
+        <v>45444</v>
       </c>
       <c r="D229" s="4">
         <v>0.57638888888888884</v>
@@ -5085,13 +5085,13 @@
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C230" s="3">
-        <v>45443</v>
+        <v>45444</v>
       </c>
       <c r="D230" s="4">
         <v>0.57638888888888884</v>
@@ -5105,13 +5105,13 @@
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C231" s="3">
-        <v>45443</v>
+        <v>45444</v>
       </c>
       <c r="D231" s="4">
         <v>0.57638888888888884</v>
@@ -5125,13 +5125,13 @@
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C232" s="3">
-        <v>45443</v>
+        <v>45444</v>
       </c>
       <c r="D232" s="4">
         <v>0.57638888888888884</v>
@@ -5145,13 +5145,13 @@
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C233" s="3">
-        <v>45443</v>
+        <v>45444</v>
       </c>
       <c r="D233" s="4">
         <v>0.57638888888888884</v>
@@ -5165,13 +5165,13 @@
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C234" s="3">
-        <v>45443</v>
+        <v>45444</v>
       </c>
       <c r="D234" s="4">
         <v>0.57638888888888884</v>
@@ -5185,13 +5185,13 @@
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C235" s="3">
-        <v>45443</v>
+        <v>45444</v>
       </c>
       <c r="D235" s="4">
         <v>0.57638888888888884</v>
@@ -5205,13 +5205,13 @@
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C236" s="3">
-        <v>45443</v>
+        <v>45444</v>
       </c>
       <c r="D236" s="4">
         <v>0.57638888888888884</v>
@@ -5225,36 +5225,36 @@
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C237" s="3">
-        <v>45443</v>
+        <v>45444</v>
       </c>
       <c r="D237" s="4">
-        <v>0.57638888888888884</v>
+        <v>0.75347222222222221</v>
       </c>
       <c r="E237" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F237" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C238" s="3">
-        <v>45443</v>
+        <v>45444</v>
       </c>
       <c r="D238" s="4">
-        <v>0.75347222222222221</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="E238" s="2" t="s">
         <v>7</v>
@@ -5265,13 +5265,13 @@
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C239" s="3">
-        <v>45443</v>
+        <v>45444</v>
       </c>
       <c r="D239" s="4">
         <v>0.75347222222222221</v>
@@ -5285,13 +5285,13 @@
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C240" s="3">
-        <v>45443</v>
+        <v>45444</v>
       </c>
       <c r="D240" s="4">
         <v>0.75347222222222221</v>
@@ -5305,13 +5305,13 @@
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C241" s="3">
-        <v>45443</v>
+        <v>45444</v>
       </c>
       <c r="D241" s="4">
         <v>0.75347222222222221</v>
@@ -5325,13 +5325,13 @@
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C242" s="3">
-        <v>45443</v>
+        <v>45444</v>
       </c>
       <c r="D242" s="4">
         <v>0.75347222222222221</v>
@@ -5345,13 +5345,13 @@
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C243" s="3">
-        <v>45443</v>
+        <v>45444</v>
       </c>
       <c r="D243" s="4">
         <v>0.75347222222222221</v>
@@ -5365,13 +5365,13 @@
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C244" s="3">
-        <v>45443</v>
+        <v>45444</v>
       </c>
       <c r="D244" s="4">
         <v>0.75347222222222221</v>
@@ -5391,7 +5391,7 @@
         <v>16</v>
       </c>
       <c r="C245" s="3">
-        <v>45443</v>
+        <v>45444</v>
       </c>
       <c r="D245" s="4">
         <v>0.75347222222222221</v>
@@ -5411,7 +5411,7 @@
         <v>21</v>
       </c>
       <c r="C246" s="3">
-        <v>45443</v>
+        <v>45444</v>
       </c>
       <c r="D246" s="4">
         <v>0.75347222222222221</v>
@@ -5431,7 +5431,7 @@
         <v>17</v>
       </c>
       <c r="C247" s="3">
-        <v>45443</v>
+        <v>45444</v>
       </c>
       <c r="D247" s="4">
         <v>0.75347222222222221</v>
@@ -5451,7 +5451,7 @@
         <v>18</v>
       </c>
       <c r="C248" s="3">
-        <v>45443</v>
+        <v>45444</v>
       </c>
       <c r="D248" s="4">
         <v>0.75347222222222221</v>
@@ -5471,7 +5471,7 @@
         <v>19</v>
       </c>
       <c r="C249" s="3">
-        <v>45443</v>
+        <v>45444</v>
       </c>
       <c r="D249" s="4">
         <v>0.75347222222222221</v>
@@ -5480,1046 +5480,6 @@
         <v>7</v>
       </c>
       <c r="F249" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A250">
-        <v>101</v>
-      </c>
-      <c r="B250" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C250" s="3">
-        <v>45444</v>
-      </c>
-      <c r="D250" s="4">
-        <v>0.3263888888888889</v>
-      </c>
-      <c r="E250" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F250" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A251">
-        <v>102</v>
-      </c>
-      <c r="B251" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C251" s="3">
-        <v>45444</v>
-      </c>
-      <c r="D251" s="4">
-        <v>0.3263888888888889</v>
-      </c>
-      <c r="E251" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F251" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A252">
-        <v>103</v>
-      </c>
-      <c r="B252" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C252" s="3">
-        <v>45444</v>
-      </c>
-      <c r="D252" s="4">
-        <v>0.3263888888888889</v>
-      </c>
-      <c r="E252" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F252" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A253">
-        <v>104</v>
-      </c>
-      <c r="B253" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C253" s="3">
-        <v>45444</v>
-      </c>
-      <c r="D253" s="4">
-        <v>0.3263888888888889</v>
-      </c>
-      <c r="E253" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F253" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A254">
-        <v>105</v>
-      </c>
-      <c r="B254" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C254" s="3">
-        <v>45444</v>
-      </c>
-      <c r="D254" s="4">
-        <v>0.3263888888888889</v>
-      </c>
-      <c r="E254" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F254" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A255">
-        <v>106</v>
-      </c>
-      <c r="B255" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C255" s="3">
-        <v>45444</v>
-      </c>
-      <c r="D255" s="4">
-        <v>0.3263888888888889</v>
-      </c>
-      <c r="E255" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F255" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A256">
-        <v>107</v>
-      </c>
-      <c r="B256" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C256" s="3">
-        <v>45444</v>
-      </c>
-      <c r="D256" s="4">
-        <v>0.3263888888888889</v>
-      </c>
-      <c r="E256" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F256" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A257">
-        <v>108</v>
-      </c>
-      <c r="B257" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C257" s="3">
-        <v>45444</v>
-      </c>
-      <c r="D257" s="4">
-        <v>0.3263888888888889</v>
-      </c>
-      <c r="E257" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F257" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A258">
-        <v>109</v>
-      </c>
-      <c r="B258" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C258" s="3">
-        <v>45444</v>
-      </c>
-      <c r="D258" s="4">
-        <v>0.3263888888888889</v>
-      </c>
-      <c r="E258" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F258" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A259">
-        <v>110</v>
-      </c>
-      <c r="B259" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C259" s="3">
-        <v>45444</v>
-      </c>
-      <c r="D259" s="4">
-        <v>0.3263888888888889</v>
-      </c>
-      <c r="E259" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F259" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A260">
-        <v>111</v>
-      </c>
-      <c r="B260" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C260" s="3">
-        <v>45444</v>
-      </c>
-      <c r="D260" s="4">
-        <v>0.3263888888888889</v>
-      </c>
-      <c r="E260" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F260" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A261">
-        <v>112</v>
-      </c>
-      <c r="B261" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C261" s="3">
-        <v>45444</v>
-      </c>
-      <c r="D261" s="4">
-        <v>0.3263888888888889</v>
-      </c>
-      <c r="E261" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F261" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A262">
-        <v>113</v>
-      </c>
-      <c r="B262" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C262" s="3">
-        <v>45444</v>
-      </c>
-      <c r="D262" s="4">
-        <v>0.3263888888888889</v>
-      </c>
-      <c r="E262" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F262" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A263">
-        <v>101</v>
-      </c>
-      <c r="B263" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C263" s="3">
-        <v>45444</v>
-      </c>
-      <c r="D263" s="4">
-        <v>0.50347222222222221</v>
-      </c>
-      <c r="E263" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F263" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A264">
-        <v>102</v>
-      </c>
-      <c r="B264" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C264" s="3">
-        <v>45444</v>
-      </c>
-      <c r="D264" s="4">
-        <v>0.50347222222222221</v>
-      </c>
-      <c r="E264" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F264" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A265">
-        <v>103</v>
-      </c>
-      <c r="B265" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C265" s="3">
-        <v>45444</v>
-      </c>
-      <c r="D265" s="4">
-        <v>0.50347222222222221</v>
-      </c>
-      <c r="E265" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F265" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A266">
-        <v>104</v>
-      </c>
-      <c r="B266" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C266" s="3">
-        <v>45444</v>
-      </c>
-      <c r="D266" s="4">
-        <v>0.50347222222222221</v>
-      </c>
-      <c r="E266" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F266" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A267">
-        <v>105</v>
-      </c>
-      <c r="B267" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C267" s="3">
-        <v>45444</v>
-      </c>
-      <c r="D267" s="4">
-        <v>0.50347222222222221</v>
-      </c>
-      <c r="E267" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F267" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A268">
-        <v>106</v>
-      </c>
-      <c r="B268" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C268" s="3">
-        <v>45444</v>
-      </c>
-      <c r="D268" s="4">
-        <v>0.50347222222222221</v>
-      </c>
-      <c r="E268" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F268" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A269">
-        <v>107</v>
-      </c>
-      <c r="B269" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C269" s="3">
-        <v>45444</v>
-      </c>
-      <c r="D269" s="4">
-        <v>0.50347222222222221</v>
-      </c>
-      <c r="E269" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F269" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A270">
-        <v>108</v>
-      </c>
-      <c r="B270" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C270" s="3">
-        <v>45444</v>
-      </c>
-      <c r="D270" s="4">
-        <v>0.50347222222222221</v>
-      </c>
-      <c r="E270" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F270" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A271">
-        <v>109</v>
-      </c>
-      <c r="B271" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C271" s="3">
-        <v>45444</v>
-      </c>
-      <c r="D271" s="4">
-        <v>0.50347222222222221</v>
-      </c>
-      <c r="E271" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F271" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A272">
-        <v>110</v>
-      </c>
-      <c r="B272" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C272" s="3">
-        <v>45444</v>
-      </c>
-      <c r="D272" s="4">
-        <v>0.50347222222222221</v>
-      </c>
-      <c r="E272" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F272" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A273">
-        <v>111</v>
-      </c>
-      <c r="B273" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C273" s="3">
-        <v>45444</v>
-      </c>
-      <c r="D273" s="4">
-        <v>0.50347222222222221</v>
-      </c>
-      <c r="E273" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F273" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A274">
-        <v>112</v>
-      </c>
-      <c r="B274" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C274" s="3">
-        <v>45444</v>
-      </c>
-      <c r="D274" s="4">
-        <v>0.50347222222222221</v>
-      </c>
-      <c r="E274" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F274" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A275">
-        <v>113</v>
-      </c>
-      <c r="B275" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C275" s="3">
-        <v>45444</v>
-      </c>
-      <c r="D275" s="4">
-        <v>0.50347222222222221</v>
-      </c>
-      <c r="E275" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F275" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A276">
-        <v>101</v>
-      </c>
-      <c r="B276" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C276" s="3">
-        <v>45444</v>
-      </c>
-      <c r="D276" s="4">
-        <v>0.57638888888888884</v>
-      </c>
-      <c r="E276" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F276" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A277">
-        <v>102</v>
-      </c>
-      <c r="B277" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C277" s="3">
-        <v>45444</v>
-      </c>
-      <c r="D277" s="4">
-        <v>0.57638888888888884</v>
-      </c>
-      <c r="E277" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F277" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A278">
-        <v>103</v>
-      </c>
-      <c r="B278" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C278" s="3">
-        <v>45444</v>
-      </c>
-      <c r="D278" s="4">
-        <v>0.57638888888888884</v>
-      </c>
-      <c r="E278" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F278" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A279">
-        <v>104</v>
-      </c>
-      <c r="B279" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C279" s="3">
-        <v>45444</v>
-      </c>
-      <c r="D279" s="4">
-        <v>0.57638888888888884</v>
-      </c>
-      <c r="E279" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F279" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A280">
-        <v>105</v>
-      </c>
-      <c r="B280" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C280" s="3">
-        <v>45444</v>
-      </c>
-      <c r="D280" s="4">
-        <v>0.57638888888888884</v>
-      </c>
-      <c r="E280" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F280" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A281">
-        <v>106</v>
-      </c>
-      <c r="B281" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C281" s="3">
-        <v>45444</v>
-      </c>
-      <c r="D281" s="4">
-        <v>0.57638888888888884</v>
-      </c>
-      <c r="E281" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F281" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A282">
-        <v>107</v>
-      </c>
-      <c r="B282" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C282" s="3">
-        <v>45444</v>
-      </c>
-      <c r="D282" s="4">
-        <v>0.57638888888888884</v>
-      </c>
-      <c r="E282" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F282" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A283">
-        <v>108</v>
-      </c>
-      <c r="B283" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C283" s="3">
-        <v>45444</v>
-      </c>
-      <c r="D283" s="4">
-        <v>0.57638888888888884</v>
-      </c>
-      <c r="E283" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F283" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A284">
-        <v>109</v>
-      </c>
-      <c r="B284" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C284" s="3">
-        <v>45444</v>
-      </c>
-      <c r="D284" s="4">
-        <v>0.57638888888888884</v>
-      </c>
-      <c r="E284" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F284" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A285">
-        <v>110</v>
-      </c>
-      <c r="B285" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C285" s="3">
-        <v>45444</v>
-      </c>
-      <c r="D285" s="4">
-        <v>0.57638888888888884</v>
-      </c>
-      <c r="E285" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F285" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A286">
-        <v>111</v>
-      </c>
-      <c r="B286" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C286" s="3">
-        <v>45444</v>
-      </c>
-      <c r="D286" s="4">
-        <v>0.57638888888888884</v>
-      </c>
-      <c r="E286" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F286" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A287">
-        <v>112</v>
-      </c>
-      <c r="B287" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C287" s="3">
-        <v>45444</v>
-      </c>
-      <c r="D287" s="4">
-        <v>0.57638888888888884</v>
-      </c>
-      <c r="E287" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F287" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A288">
-        <v>113</v>
-      </c>
-      <c r="B288" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C288" s="3">
-        <v>45444</v>
-      </c>
-      <c r="D288" s="4">
-        <v>0.57638888888888884</v>
-      </c>
-      <c r="E288" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F288" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A289">
-        <v>101</v>
-      </c>
-      <c r="B289" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C289" s="3">
-        <v>45444</v>
-      </c>
-      <c r="D289" s="4">
-        <v>0.75347222222222221</v>
-      </c>
-      <c r="E289" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F289" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A290">
-        <v>102</v>
-      </c>
-      <c r="B290" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C290" s="3">
-        <v>45444</v>
-      </c>
-      <c r="D290" s="4">
-        <v>0.75347222222222221</v>
-      </c>
-      <c r="E290" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F290" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A291">
-        <v>103</v>
-      </c>
-      <c r="B291" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C291" s="3">
-        <v>45444</v>
-      </c>
-      <c r="D291" s="4">
-        <v>0.75347222222222221</v>
-      </c>
-      <c r="E291" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F291" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A292">
-        <v>104</v>
-      </c>
-      <c r="B292" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C292" s="3">
-        <v>45444</v>
-      </c>
-      <c r="D292" s="4">
-        <v>0.75347222222222221</v>
-      </c>
-      <c r="E292" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F292" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A293">
-        <v>105</v>
-      </c>
-      <c r="B293" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C293" s="3">
-        <v>45444</v>
-      </c>
-      <c r="D293" s="4">
-        <v>0.75347222222222221</v>
-      </c>
-      <c r="E293" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F293" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A294">
-        <v>106</v>
-      </c>
-      <c r="B294" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C294" s="3">
-        <v>45444</v>
-      </c>
-      <c r="D294" s="4">
-        <v>0.75347222222222221</v>
-      </c>
-      <c r="E294" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F294" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A295">
-        <v>107</v>
-      </c>
-      <c r="B295" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C295" s="3">
-        <v>45444</v>
-      </c>
-      <c r="D295" s="4">
-        <v>0.75347222222222221</v>
-      </c>
-      <c r="E295" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F295" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A296">
-        <v>108</v>
-      </c>
-      <c r="B296" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C296" s="3">
-        <v>45444</v>
-      </c>
-      <c r="D296" s="4">
-        <v>0.75347222222222221</v>
-      </c>
-      <c r="E296" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F296" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A297">
-        <v>109</v>
-      </c>
-      <c r="B297" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C297" s="3">
-        <v>45444</v>
-      </c>
-      <c r="D297" s="4">
-        <v>0.75347222222222221</v>
-      </c>
-      <c r="E297" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F297" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A298">
-        <v>110</v>
-      </c>
-      <c r="B298" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C298" s="3">
-        <v>45444</v>
-      </c>
-      <c r="D298" s="4">
-        <v>0.75347222222222221</v>
-      </c>
-      <c r="E298" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F298" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A299">
-        <v>111</v>
-      </c>
-      <c r="B299" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C299" s="3">
-        <v>45444</v>
-      </c>
-      <c r="D299" s="4">
-        <v>0.75347222222222221</v>
-      </c>
-      <c r="E299" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F299" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A300">
-        <v>112</v>
-      </c>
-      <c r="B300" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C300" s="3">
-        <v>45444</v>
-      </c>
-      <c r="D300" s="4">
-        <v>0.75347222222222221</v>
-      </c>
-      <c r="E300" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F300" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A301">
-        <v>113</v>
-      </c>
-      <c r="B301" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C301" s="3">
-        <v>45444</v>
-      </c>
-      <c r="D301" s="4">
-        <v>0.75347222222222221</v>
-      </c>
-      <c r="E301" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F301" t="s">
         <v>20</v>
       </c>
     </row>

--- a/Libro1.xlsx
+++ b/Libro1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Neneco\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAC96BA4-719A-4D03-8620-63FB8C367479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC16C6C2-4B91-42E8-81EC-5FF6D197A2B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7F645A55-2B9A-4592-9DCD-F528B75AEBB9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="23">
   <si>
     <t>User ID</t>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t>Manuel Arias</t>
+  </si>
+  <si>
+    <t>Out</t>
   </si>
 </sst>
 </file>
@@ -485,8 +488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF8DA833-3C0F-476B-AE48-EB5CC07EE464}">
   <dimension ref="A1:I249"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A305" workbookViewId="0">
-      <selection activeCell="A102" sqref="A102:F249"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H235" sqref="H235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -780,7 +783,7 @@
         <v>7</v>
       </c>
       <c r="F14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -800,7 +803,7 @@
         <v>7</v>
       </c>
       <c r="F15" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -820,7 +823,7 @@
         <v>7</v>
       </c>
       <c r="F16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -840,7 +843,7 @@
         <v>7</v>
       </c>
       <c r="F17" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -860,7 +863,7 @@
         <v>7</v>
       </c>
       <c r="F18" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -880,7 +883,7 @@
         <v>7</v>
       </c>
       <c r="F19" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -900,7 +903,7 @@
         <v>7</v>
       </c>
       <c r="F20" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -920,7 +923,7 @@
         <v>7</v>
       </c>
       <c r="F21" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -940,7 +943,7 @@
         <v>7</v>
       </c>
       <c r="F22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -960,7 +963,7 @@
         <v>7</v>
       </c>
       <c r="F23" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -980,7 +983,7 @@
         <v>7</v>
       </c>
       <c r="F24" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1000,7 +1003,7 @@
         <v>7</v>
       </c>
       <c r="F25" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1260,7 +1263,7 @@
         <v>7</v>
       </c>
       <c r="F38" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1280,7 +1283,7 @@
         <v>7</v>
       </c>
       <c r="F39" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1300,7 +1303,7 @@
         <v>7</v>
       </c>
       <c r="F40" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1320,7 +1323,7 @@
         <v>7</v>
       </c>
       <c r="F41" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1340,7 +1343,7 @@
         <v>7</v>
       </c>
       <c r="F42" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1360,7 +1363,7 @@
         <v>7</v>
       </c>
       <c r="F43" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1380,7 +1383,7 @@
         <v>7</v>
       </c>
       <c r="F44" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1400,7 +1403,7 @@
         <v>7</v>
       </c>
       <c r="F45" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1420,7 +1423,7 @@
         <v>7</v>
       </c>
       <c r="F46" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -1440,7 +1443,7 @@
         <v>7</v>
       </c>
       <c r="F47" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -1460,7 +1463,7 @@
         <v>7</v>
       </c>
       <c r="F48" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -1480,7 +1483,7 @@
         <v>7</v>
       </c>
       <c r="F49" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -1760,7 +1763,7 @@
         <v>7</v>
       </c>
       <c r="F63" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -1780,7 +1783,7 @@
         <v>7</v>
       </c>
       <c r="F64" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -1800,7 +1803,7 @@
         <v>7</v>
       </c>
       <c r="F65" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -1820,7 +1823,7 @@
         <v>7</v>
       </c>
       <c r="F66" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -1840,7 +1843,7 @@
         <v>7</v>
       </c>
       <c r="F67" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -1860,7 +1863,7 @@
         <v>7</v>
       </c>
       <c r="F68" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -1880,7 +1883,7 @@
         <v>7</v>
       </c>
       <c r="F69" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -1900,7 +1903,7 @@
         <v>7</v>
       </c>
       <c r="F70" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -1920,7 +1923,7 @@
         <v>7</v>
       </c>
       <c r="F71" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -1940,7 +1943,7 @@
         <v>7</v>
       </c>
       <c r="F72" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -1960,7 +1963,7 @@
         <v>7</v>
       </c>
       <c r="F73" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -1980,7 +1983,7 @@
         <v>7</v>
       </c>
       <c r="F74" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -2000,7 +2003,7 @@
         <v>7</v>
       </c>
       <c r="F75" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -2280,7 +2283,7 @@
         <v>7</v>
       </c>
       <c r="F89" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -2300,7 +2303,7 @@
         <v>7</v>
       </c>
       <c r="F90" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -2320,7 +2323,7 @@
         <v>7</v>
       </c>
       <c r="F91" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -2340,7 +2343,7 @@
         <v>7</v>
       </c>
       <c r="F92" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -2360,7 +2363,7 @@
         <v>7</v>
       </c>
       <c r="F93" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -2380,7 +2383,7 @@
         <v>7</v>
       </c>
       <c r="F94" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -2400,7 +2403,7 @@
         <v>7</v>
       </c>
       <c r="F95" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -2420,7 +2423,7 @@
         <v>7</v>
       </c>
       <c r="F96" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -2440,7 +2443,7 @@
         <v>7</v>
       </c>
       <c r="F97" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -2460,7 +2463,7 @@
         <v>7</v>
       </c>
       <c r="F98" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -2480,7 +2483,7 @@
         <v>7</v>
       </c>
       <c r="F99" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -2500,7 +2503,7 @@
         <v>7</v>
       </c>
       <c r="F100" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -2520,7 +2523,7 @@
         <v>7</v>
       </c>
       <c r="F101" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -2780,7 +2783,7 @@
         <v>7</v>
       </c>
       <c r="F114" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -2800,7 +2803,7 @@
         <v>7</v>
       </c>
       <c r="F115" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -2820,7 +2823,7 @@
         <v>7</v>
       </c>
       <c r="F116" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
@@ -2840,7 +2843,7 @@
         <v>7</v>
       </c>
       <c r="F117" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
@@ -2860,7 +2863,7 @@
         <v>7</v>
       </c>
       <c r="F118" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
@@ -2880,7 +2883,7 @@
         <v>7</v>
       </c>
       <c r="F119" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
@@ -2900,7 +2903,7 @@
         <v>7</v>
       </c>
       <c r="F120" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
@@ -2920,7 +2923,7 @@
         <v>7</v>
       </c>
       <c r="F121" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
@@ -2940,7 +2943,7 @@
         <v>7</v>
       </c>
       <c r="F122" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -2960,7 +2963,7 @@
         <v>7</v>
       </c>
       <c r="F123" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
@@ -2980,7 +2983,7 @@
         <v>7</v>
       </c>
       <c r="F124" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
@@ -3000,7 +3003,7 @@
         <v>7</v>
       </c>
       <c r="F125" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
@@ -3260,7 +3263,7 @@
         <v>7</v>
       </c>
       <c r="F138" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
@@ -3280,7 +3283,7 @@
         <v>7</v>
       </c>
       <c r="F139" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
@@ -3300,7 +3303,7 @@
         <v>7</v>
       </c>
       <c r="F140" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
@@ -3320,7 +3323,7 @@
         <v>7</v>
       </c>
       <c r="F141" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
@@ -3340,7 +3343,7 @@
         <v>7</v>
       </c>
       <c r="F142" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
@@ -3360,7 +3363,7 @@
         <v>7</v>
       </c>
       <c r="F143" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
@@ -3380,7 +3383,7 @@
         <v>7</v>
       </c>
       <c r="F144" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
@@ -3400,7 +3403,7 @@
         <v>7</v>
       </c>
       <c r="F145" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
@@ -3420,7 +3423,7 @@
         <v>7</v>
       </c>
       <c r="F146" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
@@ -3440,7 +3443,7 @@
         <v>7</v>
       </c>
       <c r="F147" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
@@ -3460,7 +3463,7 @@
         <v>7</v>
       </c>
       <c r="F148" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
@@ -3480,7 +3483,7 @@
         <v>7</v>
       </c>
       <c r="F149" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
@@ -3740,7 +3743,7 @@
         <v>7</v>
       </c>
       <c r="F162" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
@@ -3760,7 +3763,7 @@
         <v>7</v>
       </c>
       <c r="F163" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
@@ -3780,7 +3783,7 @@
         <v>7</v>
       </c>
       <c r="F164" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
@@ -3800,7 +3803,7 @@
         <v>7</v>
       </c>
       <c r="F165" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
@@ -3820,7 +3823,7 @@
         <v>7</v>
       </c>
       <c r="F166" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
@@ -3840,7 +3843,7 @@
         <v>7</v>
       </c>
       <c r="F167" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
@@ -3860,7 +3863,7 @@
         <v>7</v>
       </c>
       <c r="F168" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
@@ -3880,7 +3883,7 @@
         <v>7</v>
       </c>
       <c r="F169" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
@@ -3900,7 +3903,7 @@
         <v>7</v>
       </c>
       <c r="F170" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
@@ -3920,7 +3923,7 @@
         <v>7</v>
       </c>
       <c r="F171" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
@@ -3940,7 +3943,7 @@
         <v>7</v>
       </c>
       <c r="F172" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
@@ -4220,7 +4223,7 @@
         <v>7</v>
       </c>
       <c r="F186" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
@@ -4240,7 +4243,7 @@
         <v>7</v>
       </c>
       <c r="F187" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
@@ -4260,7 +4263,7 @@
         <v>7</v>
       </c>
       <c r="F188" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
@@ -4280,7 +4283,7 @@
         <v>7</v>
       </c>
       <c r="F189" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
@@ -4300,7 +4303,7 @@
         <v>7</v>
       </c>
       <c r="F190" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
@@ -4320,7 +4323,7 @@
         <v>7</v>
       </c>
       <c r="F191" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
@@ -4340,7 +4343,7 @@
         <v>7</v>
       </c>
       <c r="F192" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
@@ -4360,7 +4363,7 @@
         <v>7</v>
       </c>
       <c r="F193" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
@@ -4380,7 +4383,7 @@
         <v>7</v>
       </c>
       <c r="F194" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
@@ -4400,7 +4403,7 @@
         <v>7</v>
       </c>
       <c r="F195" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
@@ -4420,7 +4423,7 @@
         <v>7</v>
       </c>
       <c r="F196" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
@@ -4440,7 +4443,7 @@
         <v>7</v>
       </c>
       <c r="F197" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
@@ -4720,7 +4723,7 @@
         <v>7</v>
       </c>
       <c r="F211" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
@@ -4740,7 +4743,7 @@
         <v>7</v>
       </c>
       <c r="F212" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
@@ -4760,7 +4763,7 @@
         <v>7</v>
       </c>
       <c r="F213" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
@@ -4780,7 +4783,7 @@
         <v>7</v>
       </c>
       <c r="F214" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
@@ -4800,7 +4803,7 @@
         <v>7</v>
       </c>
       <c r="F215" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
@@ -4820,7 +4823,7 @@
         <v>7</v>
       </c>
       <c r="F216" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
@@ -4840,7 +4843,7 @@
         <v>7</v>
       </c>
       <c r="F217" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
@@ -4860,7 +4863,7 @@
         <v>7</v>
       </c>
       <c r="F218" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
@@ -4880,7 +4883,7 @@
         <v>7</v>
       </c>
       <c r="F219" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
@@ -4900,7 +4903,7 @@
         <v>7</v>
       </c>
       <c r="F220" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
@@ -4920,7 +4923,7 @@
         <v>7</v>
       </c>
       <c r="F221" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
@@ -4940,7 +4943,7 @@
         <v>7</v>
       </c>
       <c r="F222" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
@@ -4960,7 +4963,7 @@
         <v>7</v>
       </c>
       <c r="F223" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
@@ -5240,7 +5243,7 @@
         <v>7</v>
       </c>
       <c r="F237" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
@@ -5260,7 +5263,7 @@
         <v>7</v>
       </c>
       <c r="F238" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
@@ -5280,7 +5283,7 @@
         <v>7</v>
       </c>
       <c r="F239" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
@@ -5300,7 +5303,7 @@
         <v>7</v>
       </c>
       <c r="F240" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
@@ -5320,7 +5323,7 @@
         <v>7</v>
       </c>
       <c r="F241" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
@@ -5340,7 +5343,7 @@
         <v>7</v>
       </c>
       <c r="F242" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
@@ -5360,7 +5363,7 @@
         <v>7</v>
       </c>
       <c r="F243" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
@@ -5380,7 +5383,7 @@
         <v>7</v>
       </c>
       <c r="F244" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
@@ -5400,7 +5403,7 @@
         <v>7</v>
       </c>
       <c r="F245" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
@@ -5420,7 +5423,7 @@
         <v>7</v>
       </c>
       <c r="F246" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
@@ -5440,7 +5443,7 @@
         <v>7</v>
       </c>
       <c r="F247" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
@@ -5460,7 +5463,7 @@
         <v>7</v>
       </c>
       <c r="F248" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
@@ -5480,7 +5483,7 @@
         <v>7</v>
       </c>
       <c r="F249" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Libro1.xlsx
+++ b/Libro1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Neneco\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC16C6C2-4B91-42E8-81EC-5FF6D197A2B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{211FA816-AE57-480A-90FF-1EF91FF1E61E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7F645A55-2B9A-4592-9DCD-F528B75AEBB9}"/>
   </bookViews>
@@ -489,7 +489,7 @@
   <dimension ref="A1:I249"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H235" sqref="H235"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Libro1.xlsx
+++ b/Libro1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Neneco\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{211FA816-AE57-480A-90FF-1EF91FF1E61E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41C7084A-25E7-4D90-91AD-B3126E679F7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7F645A55-2B9A-4592-9DCD-F528B75AEBB9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="23">
   <si>
     <t>User ID</t>
   </si>
@@ -486,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF8DA833-3C0F-476B-AE48-EB5CC07EE464}">
-  <dimension ref="A1:I249"/>
+  <dimension ref="A1:I273"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="A240" workbookViewId="0">
+      <selection activeCell="G255" sqref="G255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -529,10 +529,10 @@
         <v>6</v>
       </c>
       <c r="C2" s="3">
-        <v>45439</v>
+        <v>45593</v>
       </c>
       <c r="D2" s="4">
-        <v>0.3263888888888889</v>
+        <v>0.33680555555555558</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>7</v>
@@ -551,10 +551,10 @@
         <v>9</v>
       </c>
       <c r="C3" s="3">
-        <v>45439</v>
+        <v>45593</v>
       </c>
       <c r="D3" s="4">
-        <v>0.3263888888888889</v>
+        <v>0.33263888888888887</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>7</v>
@@ -572,10 +572,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="3">
-        <v>45439</v>
+        <v>45593</v>
       </c>
       <c r="D4" s="4">
-        <v>0.3263888888888889</v>
+        <v>0.31944444444444442</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>7</v>
@@ -593,10 +593,10 @@
         <v>11</v>
       </c>
       <c r="C5" s="3">
-        <v>45439</v>
+        <v>45593</v>
       </c>
       <c r="D5" s="4">
-        <v>0.3263888888888889</v>
+        <v>0.32708333333333334</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>7</v>
@@ -614,10 +614,10 @@
         <v>12</v>
       </c>
       <c r="C6" s="3">
-        <v>45439</v>
+        <v>45593</v>
       </c>
       <c r="D6" s="4">
-        <v>0.3263888888888889</v>
+        <v>0.33194444444444443</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>7</v>
@@ -634,7 +634,7 @@
         <v>13</v>
       </c>
       <c r="C7" s="3">
-        <v>45439</v>
+        <v>45593</v>
       </c>
       <c r="D7" s="4">
         <v>0.3263888888888889</v>
@@ -654,7 +654,7 @@
         <v>14</v>
       </c>
       <c r="C8" s="3">
-        <v>45439</v>
+        <v>45593</v>
       </c>
       <c r="D8" s="4">
         <v>0.3263888888888889</v>
@@ -674,10 +674,10 @@
         <v>15</v>
       </c>
       <c r="C9" s="3">
-        <v>45439</v>
+        <v>45593</v>
       </c>
       <c r="D9" s="4">
-        <v>0.3263888888888889</v>
+        <v>0.32291666666666669</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>7</v>
@@ -694,7 +694,7 @@
         <v>16</v>
       </c>
       <c r="C10" s="3">
-        <v>45439</v>
+        <v>45593</v>
       </c>
       <c r="D10" s="4">
         <v>0.3263888888888889</v>
@@ -714,10 +714,10 @@
         <v>17</v>
       </c>
       <c r="C11" s="3">
-        <v>45439</v>
+        <v>45593</v>
       </c>
       <c r="D11" s="4">
-        <v>0.3263888888888889</v>
+        <v>0.31944444444444442</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>7</v>
@@ -734,7 +734,7 @@
         <v>18</v>
       </c>
       <c r="C12" s="3">
-        <v>45439</v>
+        <v>45593</v>
       </c>
       <c r="D12" s="4">
         <v>0.3263888888888889</v>
@@ -754,10 +754,10 @@
         <v>19</v>
       </c>
       <c r="C13" s="3">
-        <v>45439</v>
+        <v>45593</v>
       </c>
       <c r="D13" s="4">
-        <v>0.3263888888888889</v>
+        <v>0.32777777777777778</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>7</v>
@@ -774,10 +774,10 @@
         <v>6</v>
       </c>
       <c r="C14" s="3">
-        <v>45439</v>
+        <v>45593</v>
       </c>
       <c r="D14" s="4">
-        <v>0.50347222222222221</v>
+        <v>0.50694444444444442</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>7</v>
@@ -794,7 +794,7 @@
         <v>9</v>
       </c>
       <c r="C15" s="3">
-        <v>45439</v>
+        <v>45593</v>
       </c>
       <c r="D15" s="4">
         <v>0.50347222222222221</v>
@@ -814,10 +814,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="3">
-        <v>45439</v>
+        <v>45593</v>
       </c>
       <c r="D16" s="4">
-        <v>0.50347222222222221</v>
+        <v>0.50138888888888888</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>7</v>
@@ -834,10 +834,10 @@
         <v>11</v>
       </c>
       <c r="C17" s="3">
-        <v>45439</v>
+        <v>45593</v>
       </c>
       <c r="D17" s="4">
-        <v>0.50347222222222221</v>
+        <v>0.50069444444444444</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>7</v>
@@ -854,10 +854,10 @@
         <v>12</v>
       </c>
       <c r="C18" s="3">
-        <v>45439</v>
+        <v>45593</v>
       </c>
       <c r="D18" s="4">
-        <v>0.50347222222222221</v>
+        <v>0.51041666666666663</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>7</v>
@@ -874,10 +874,10 @@
         <v>13</v>
       </c>
       <c r="C19" s="3">
-        <v>45439</v>
+        <v>45593</v>
       </c>
       <c r="D19" s="4">
-        <v>0.50347222222222221</v>
+        <v>0.50138888888888888</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>7</v>
@@ -894,7 +894,7 @@
         <v>14</v>
       </c>
       <c r="C20" s="3">
-        <v>45439</v>
+        <v>45593</v>
       </c>
       <c r="D20" s="4">
         <v>0.50347222222222221</v>
@@ -914,7 +914,7 @@
         <v>15</v>
       </c>
       <c r="C21" s="3">
-        <v>45439</v>
+        <v>45593</v>
       </c>
       <c r="D21" s="4">
         <v>0.50347222222222221</v>
@@ -934,7 +934,7 @@
         <v>16</v>
       </c>
       <c r="C22" s="3">
-        <v>45439</v>
+        <v>45593</v>
       </c>
       <c r="D22" s="4">
         <v>0.50347222222222221</v>
@@ -954,7 +954,7 @@
         <v>17</v>
       </c>
       <c r="C23" s="3">
-        <v>45439</v>
+        <v>45593</v>
       </c>
       <c r="D23" s="4">
         <v>0.50347222222222221</v>
@@ -974,10 +974,10 @@
         <v>18</v>
       </c>
       <c r="C24" s="3">
-        <v>45439</v>
+        <v>45593</v>
       </c>
       <c r="D24" s="4">
-        <v>0.50347222222222221</v>
+        <v>0.50138888888888888</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>7</v>
@@ -994,7 +994,7 @@
         <v>19</v>
       </c>
       <c r="C25" s="3">
-        <v>45439</v>
+        <v>45593</v>
       </c>
       <c r="D25" s="4">
         <v>0.50347222222222221</v>
@@ -1014,10 +1014,10 @@
         <v>6</v>
       </c>
       <c r="C26" s="3">
-        <v>45439</v>
+        <v>45593</v>
       </c>
       <c r="D26" s="4">
-        <v>0.57638888888888884</v>
+        <v>0.57708333333333328</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>7</v>
@@ -1034,7 +1034,7 @@
         <v>9</v>
       </c>
       <c r="C27" s="3">
-        <v>45439</v>
+        <v>45593</v>
       </c>
       <c r="D27" s="4">
         <v>0.57638888888888884</v>
@@ -1054,10 +1054,10 @@
         <v>10</v>
       </c>
       <c r="C28" s="3">
-        <v>45439</v>
+        <v>45593</v>
       </c>
       <c r="D28" s="4">
-        <v>0.57638888888888884</v>
+        <v>0.58194444444444449</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>7</v>
@@ -1074,10 +1074,10 @@
         <v>11</v>
       </c>
       <c r="C29" s="3">
-        <v>45439</v>
+        <v>45593</v>
       </c>
       <c r="D29" s="4">
-        <v>0.57638888888888884</v>
+        <v>0.57986111111111116</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>7</v>
@@ -1094,7 +1094,7 @@
         <v>12</v>
       </c>
       <c r="C30" s="3">
-        <v>45439</v>
+        <v>45593</v>
       </c>
       <c r="D30" s="4">
         <v>0.57638888888888884</v>
@@ -1114,10 +1114,10 @@
         <v>13</v>
       </c>
       <c r="C31" s="3">
-        <v>45439</v>
+        <v>45593</v>
       </c>
       <c r="D31" s="4">
-        <v>0.57638888888888884</v>
+        <v>0.58194444444444449</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>7</v>
@@ -1134,10 +1134,10 @@
         <v>14</v>
       </c>
       <c r="C32" s="3">
-        <v>45439</v>
+        <v>45593</v>
       </c>
       <c r="D32" s="4">
-        <v>0.57638888888888884</v>
+        <v>0.57986111111111116</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>7</v>
@@ -1154,7 +1154,7 @@
         <v>15</v>
       </c>
       <c r="C33" s="3">
-        <v>45439</v>
+        <v>45593</v>
       </c>
       <c r="D33" s="4">
         <v>0.57638888888888884</v>
@@ -1174,7 +1174,7 @@
         <v>16</v>
       </c>
       <c r="C34" s="3">
-        <v>45439</v>
+        <v>45593</v>
       </c>
       <c r="D34" s="4">
         <v>0.57638888888888884</v>
@@ -1194,10 +1194,10 @@
         <v>17</v>
       </c>
       <c r="C35" s="3">
-        <v>45439</v>
+        <v>45593</v>
       </c>
       <c r="D35" s="4">
-        <v>0.57638888888888884</v>
+        <v>0.58194444444444449</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>7</v>
@@ -1214,10 +1214,10 @@
         <v>18</v>
       </c>
       <c r="C36" s="3">
-        <v>45439</v>
+        <v>45593</v>
       </c>
       <c r="D36" s="4">
-        <v>0.57638888888888884</v>
+        <v>0.57986111111111116</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>7</v>
@@ -1234,7 +1234,7 @@
         <v>19</v>
       </c>
       <c r="C37" s="3">
-        <v>45439</v>
+        <v>45593</v>
       </c>
       <c r="D37" s="4">
         <v>0.57638888888888884</v>
@@ -1254,7 +1254,7 @@
         <v>6</v>
       </c>
       <c r="C38" s="3">
-        <v>45439</v>
+        <v>45593</v>
       </c>
       <c r="D38" s="4">
         <v>0.75347222222222221</v>
@@ -1274,7 +1274,7 @@
         <v>9</v>
       </c>
       <c r="C39" s="3">
-        <v>45439</v>
+        <v>45593</v>
       </c>
       <c r="D39" s="4">
         <v>0.75347222222222221</v>
@@ -1294,10 +1294,10 @@
         <v>10</v>
       </c>
       <c r="C40" s="3">
-        <v>45439</v>
+        <v>45593</v>
       </c>
       <c r="D40" s="4">
-        <v>0.75347222222222221</v>
+        <v>0.75138888888888888</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>7</v>
@@ -1314,10 +1314,10 @@
         <v>11</v>
       </c>
       <c r="C41" s="3">
-        <v>45439</v>
+        <v>45593</v>
       </c>
       <c r="D41" s="4">
-        <v>0.75347222222222221</v>
+        <v>0.75069444444444444</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>7</v>
@@ -1334,7 +1334,7 @@
         <v>12</v>
       </c>
       <c r="C42" s="3">
-        <v>45439</v>
+        <v>45593</v>
       </c>
       <c r="D42" s="4">
         <v>0.75347222222222221</v>
@@ -1354,7 +1354,7 @@
         <v>13</v>
       </c>
       <c r="C43" s="3">
-        <v>45439</v>
+        <v>45593</v>
       </c>
       <c r="D43" s="4">
         <v>0.75347222222222221</v>
@@ -1374,10 +1374,10 @@
         <v>14</v>
       </c>
       <c r="C44" s="3">
-        <v>45439</v>
+        <v>45593</v>
       </c>
       <c r="D44" s="4">
-        <v>0.75347222222222221</v>
+        <v>0.75694444444444442</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>7</v>
@@ -1394,7 +1394,7 @@
         <v>15</v>
       </c>
       <c r="C45" s="3">
-        <v>45439</v>
+        <v>45593</v>
       </c>
       <c r="D45" s="4">
         <v>0.75347222222222221</v>
@@ -1414,10 +1414,10 @@
         <v>16</v>
       </c>
       <c r="C46" s="3">
-        <v>45439</v>
+        <v>45593</v>
       </c>
       <c r="D46" s="4">
-        <v>0.75347222222222221</v>
+        <v>0.75138888888888888</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>7</v>
@@ -1434,7 +1434,7 @@
         <v>17</v>
       </c>
       <c r="C47" s="3">
-        <v>45439</v>
+        <v>45593</v>
       </c>
       <c r="D47" s="4">
         <v>0.75347222222222221</v>
@@ -1454,7 +1454,7 @@
         <v>18</v>
       </c>
       <c r="C48" s="3">
-        <v>45439</v>
+        <v>45593</v>
       </c>
       <c r="D48" s="4">
         <v>0.75347222222222221</v>
@@ -1474,7 +1474,7 @@
         <v>19</v>
       </c>
       <c r="C49" s="3">
-        <v>45439</v>
+        <v>45593</v>
       </c>
       <c r="D49" s="4">
         <v>0.75347222222222221</v>
@@ -1494,7 +1494,7 @@
         <v>6</v>
       </c>
       <c r="C50" s="3">
-        <v>45440</v>
+        <v>45594</v>
       </c>
       <c r="D50" s="4">
         <v>0.3263888888888889</v>
@@ -1514,7 +1514,7 @@
         <v>9</v>
       </c>
       <c r="C51" s="3">
-        <v>45440</v>
+        <v>45594</v>
       </c>
       <c r="D51" s="4">
         <v>0.3263888888888889</v>
@@ -1534,7 +1534,7 @@
         <v>10</v>
       </c>
       <c r="C52" s="3">
-        <v>45440</v>
+        <v>45594</v>
       </c>
       <c r="D52" s="4">
         <v>0.3263888888888889</v>
@@ -1554,7 +1554,7 @@
         <v>11</v>
       </c>
       <c r="C53" s="3">
-        <v>45440</v>
+        <v>45594</v>
       </c>
       <c r="D53" s="4">
         <v>0.3263888888888889</v>
@@ -1574,7 +1574,7 @@
         <v>12</v>
       </c>
       <c r="C54" s="3">
-        <v>45440</v>
+        <v>45594</v>
       </c>
       <c r="D54" s="4">
         <v>0.3263888888888889</v>
@@ -1594,7 +1594,7 @@
         <v>13</v>
       </c>
       <c r="C55" s="3">
-        <v>45440</v>
+        <v>45594</v>
       </c>
       <c r="D55" s="4">
         <v>0.3263888888888889</v>
@@ -1614,7 +1614,7 @@
         <v>14</v>
       </c>
       <c r="C56" s="3">
-        <v>45440</v>
+        <v>45594</v>
       </c>
       <c r="D56" s="4">
         <v>0.3263888888888889</v>
@@ -1634,7 +1634,7 @@
         <v>15</v>
       </c>
       <c r="C57" s="3">
-        <v>45440</v>
+        <v>45594</v>
       </c>
       <c r="D57" s="4">
         <v>0.3263888888888889</v>
@@ -1654,7 +1654,7 @@
         <v>16</v>
       </c>
       <c r="C58" s="3">
-        <v>45440</v>
+        <v>45594</v>
       </c>
       <c r="D58" s="4">
         <v>0.3263888888888889</v>
@@ -1674,7 +1674,7 @@
         <v>21</v>
       </c>
       <c r="C59" s="3">
-        <v>45440</v>
+        <v>45594</v>
       </c>
       <c r="D59" s="4">
         <v>0.3263888888888889</v>
@@ -1694,7 +1694,7 @@
         <v>17</v>
       </c>
       <c r="C60" s="3">
-        <v>45440</v>
+        <v>45594</v>
       </c>
       <c r="D60" s="4">
         <v>0.3263888888888889</v>
@@ -1714,7 +1714,7 @@
         <v>18</v>
       </c>
       <c r="C61" s="3">
-        <v>45440</v>
+        <v>45594</v>
       </c>
       <c r="D61" s="4">
         <v>0.3263888888888889</v>
@@ -1734,7 +1734,7 @@
         <v>19</v>
       </c>
       <c r="C62" s="3">
-        <v>45440</v>
+        <v>45594</v>
       </c>
       <c r="D62" s="4">
         <v>0.3263888888888889</v>
@@ -1754,7 +1754,7 @@
         <v>6</v>
       </c>
       <c r="C63" s="3">
-        <v>45440</v>
+        <v>45594</v>
       </c>
       <c r="D63" s="4">
         <v>0.50347222222222221</v>
@@ -1774,7 +1774,7 @@
         <v>9</v>
       </c>
       <c r="C64" s="3">
-        <v>45440</v>
+        <v>45594</v>
       </c>
       <c r="D64" s="4">
         <v>0.50347222222222221</v>
@@ -1794,7 +1794,7 @@
         <v>10</v>
       </c>
       <c r="C65" s="3">
-        <v>45440</v>
+        <v>45594</v>
       </c>
       <c r="D65" s="4">
         <v>0.50347222222222221</v>
@@ -1814,7 +1814,7 @@
         <v>11</v>
       </c>
       <c r="C66" s="3">
-        <v>45440</v>
+        <v>45594</v>
       </c>
       <c r="D66" s="4">
         <v>0.50347222222222221</v>
@@ -1834,7 +1834,7 @@
         <v>12</v>
       </c>
       <c r="C67" s="3">
-        <v>45440</v>
+        <v>45594</v>
       </c>
       <c r="D67" s="4">
         <v>0.50347222222222221</v>
@@ -1854,10 +1854,10 @@
         <v>13</v>
       </c>
       <c r="C68" s="3">
-        <v>45440</v>
+        <v>45594</v>
       </c>
       <c r="D68" s="4">
-        <v>0.50347222222222221</v>
+        <v>0.50138888888888888</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>7</v>
@@ -1874,7 +1874,7 @@
         <v>14</v>
       </c>
       <c r="C69" s="3">
-        <v>45440</v>
+        <v>45594</v>
       </c>
       <c r="D69" s="4">
         <v>0.50347222222222221</v>
@@ -1894,7 +1894,7 @@
         <v>15</v>
       </c>
       <c r="C70" s="3">
-        <v>45440</v>
+        <v>45594</v>
       </c>
       <c r="D70" s="4">
         <v>0.50347222222222221</v>
@@ -1914,7 +1914,7 @@
         <v>16</v>
       </c>
       <c r="C71" s="3">
-        <v>45440</v>
+        <v>45594</v>
       </c>
       <c r="D71" s="4">
         <v>0.50347222222222221</v>
@@ -1934,10 +1934,10 @@
         <v>21</v>
       </c>
       <c r="C72" s="3">
-        <v>45440</v>
+        <v>45594</v>
       </c>
       <c r="D72" s="4">
-        <v>0.50347222222222221</v>
+        <v>0.50138888888888888</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>7</v>
@@ -1954,7 +1954,7 @@
         <v>17</v>
       </c>
       <c r="C73" s="3">
-        <v>45440</v>
+        <v>45594</v>
       </c>
       <c r="D73" s="4">
         <v>0.50347222222222221</v>
@@ -1974,7 +1974,7 @@
         <v>18</v>
       </c>
       <c r="C74" s="3">
-        <v>45440</v>
+        <v>45594</v>
       </c>
       <c r="D74" s="4">
         <v>0.50347222222222221</v>
@@ -1994,7 +1994,7 @@
         <v>19</v>
       </c>
       <c r="C75" s="3">
-        <v>45440</v>
+        <v>45594</v>
       </c>
       <c r="D75" s="4">
         <v>0.50347222222222221</v>
@@ -2014,7 +2014,7 @@
         <v>6</v>
       </c>
       <c r="C76" s="3">
-        <v>45440</v>
+        <v>45594</v>
       </c>
       <c r="D76" s="4">
         <v>0.57638888888888884</v>
@@ -2034,7 +2034,7 @@
         <v>9</v>
       </c>
       <c r="C77" s="3">
-        <v>45440</v>
+        <v>45594</v>
       </c>
       <c r="D77" s="4">
         <v>0.57638888888888884</v>
@@ -2054,10 +2054,10 @@
         <v>10</v>
       </c>
       <c r="C78" s="3">
-        <v>45440</v>
+        <v>45594</v>
       </c>
       <c r="D78" s="4">
-        <v>0.57638888888888884</v>
+        <v>0.57986111111111116</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>7</v>
@@ -2074,7 +2074,7 @@
         <v>11</v>
       </c>
       <c r="C79" s="3">
-        <v>45440</v>
+        <v>45594</v>
       </c>
       <c r="D79" s="4">
         <v>0.57638888888888884</v>
@@ -2094,10 +2094,10 @@
         <v>12</v>
       </c>
       <c r="C80" s="3">
-        <v>45440</v>
+        <v>45594</v>
       </c>
       <c r="D80" s="4">
-        <v>0.57638888888888884</v>
+        <v>0.58194444444444449</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>7</v>
@@ -2114,7 +2114,7 @@
         <v>13</v>
       </c>
       <c r="C81" s="3">
-        <v>45440</v>
+        <v>45594</v>
       </c>
       <c r="D81" s="4">
         <v>0.57638888888888884</v>
@@ -2134,7 +2134,7 @@
         <v>14</v>
       </c>
       <c r="C82" s="3">
-        <v>45440</v>
+        <v>45594</v>
       </c>
       <c r="D82" s="4">
         <v>0.57638888888888884</v>
@@ -2154,7 +2154,7 @@
         <v>15</v>
       </c>
       <c r="C83" s="3">
-        <v>45440</v>
+        <v>45594</v>
       </c>
       <c r="D83" s="4">
         <v>0.57638888888888884</v>
@@ -2174,10 +2174,10 @@
         <v>16</v>
       </c>
       <c r="C84" s="3">
-        <v>45440</v>
+        <v>45594</v>
       </c>
       <c r="D84" s="4">
-        <v>0.57638888888888884</v>
+        <v>0.57986111111111116</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>7</v>
@@ -2194,7 +2194,7 @@
         <v>21</v>
       </c>
       <c r="C85" s="3">
-        <v>45440</v>
+        <v>45594</v>
       </c>
       <c r="D85" s="4">
         <v>0.57638888888888884</v>
@@ -2214,10 +2214,10 @@
         <v>17</v>
       </c>
       <c r="C86" s="3">
-        <v>45440</v>
+        <v>45594</v>
       </c>
       <c r="D86" s="4">
-        <v>0.57638888888888884</v>
+        <v>0.58194444444444449</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>7</v>
@@ -2234,7 +2234,7 @@
         <v>18</v>
       </c>
       <c r="C87" s="3">
-        <v>45440</v>
+        <v>45594</v>
       </c>
       <c r="D87" s="4">
         <v>0.57638888888888884</v>
@@ -2254,7 +2254,7 @@
         <v>19</v>
       </c>
       <c r="C88" s="3">
-        <v>45440</v>
+        <v>45594</v>
       </c>
       <c r="D88" s="4">
         <v>0.57638888888888884</v>
@@ -2274,7 +2274,7 @@
         <v>6</v>
       </c>
       <c r="C89" s="3">
-        <v>45440</v>
+        <v>45594</v>
       </c>
       <c r="D89" s="4">
         <v>0.75347222222222221</v>
@@ -2294,7 +2294,7 @@
         <v>9</v>
       </c>
       <c r="C90" s="3">
-        <v>45440</v>
+        <v>45594</v>
       </c>
       <c r="D90" s="4">
         <v>0.75347222222222221</v>
@@ -2314,7 +2314,7 @@
         <v>10</v>
       </c>
       <c r="C91" s="3">
-        <v>45440</v>
+        <v>45594</v>
       </c>
       <c r="D91" s="4">
         <v>0.75347222222222221</v>
@@ -2334,10 +2334,10 @@
         <v>11</v>
       </c>
       <c r="C92" s="3">
-        <v>45440</v>
+        <v>45594</v>
       </c>
       <c r="D92" s="4">
-        <v>0.75347222222222221</v>
+        <v>0.75138888888888888</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>7</v>
@@ -2354,7 +2354,7 @@
         <v>12</v>
       </c>
       <c r="C93" s="3">
-        <v>45440</v>
+        <v>45594</v>
       </c>
       <c r="D93" s="4">
         <v>0.75347222222222221</v>
@@ -2374,7 +2374,7 @@
         <v>13</v>
       </c>
       <c r="C94" s="3">
-        <v>45440</v>
+        <v>45594</v>
       </c>
       <c r="D94" s="4">
         <v>0.75347222222222221</v>
@@ -2394,7 +2394,7 @@
         <v>14</v>
       </c>
       <c r="C95" s="3">
-        <v>45440</v>
+        <v>45594</v>
       </c>
       <c r="D95" s="4">
         <v>0.75347222222222221</v>
@@ -2414,7 +2414,7 @@
         <v>15</v>
       </c>
       <c r="C96" s="3">
-        <v>45440</v>
+        <v>45594</v>
       </c>
       <c r="D96" s="4">
         <v>0.75347222222222221</v>
@@ -2434,10 +2434,10 @@
         <v>16</v>
       </c>
       <c r="C97" s="3">
-        <v>45440</v>
+        <v>45594</v>
       </c>
       <c r="D97" s="4">
-        <v>0.75347222222222221</v>
+        <v>0.75138888888888888</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>7</v>
@@ -2454,7 +2454,7 @@
         <v>21</v>
       </c>
       <c r="C98" s="3">
-        <v>45440</v>
+        <v>45594</v>
       </c>
       <c r="D98" s="4">
         <v>0.75347222222222221</v>
@@ -2474,7 +2474,7 @@
         <v>17</v>
       </c>
       <c r="C99" s="3">
-        <v>45440</v>
+        <v>45594</v>
       </c>
       <c r="D99" s="4">
         <v>0.75347222222222221</v>
@@ -2494,7 +2494,7 @@
         <v>18</v>
       </c>
       <c r="C100" s="3">
-        <v>45440</v>
+        <v>45594</v>
       </c>
       <c r="D100" s="4">
         <v>0.75347222222222221</v>
@@ -2514,7 +2514,7 @@
         <v>19</v>
       </c>
       <c r="C101" s="3">
-        <v>45440</v>
+        <v>45594</v>
       </c>
       <c r="D101" s="4">
         <v>0.75347222222222221</v>
@@ -2534,7 +2534,7 @@
         <v>6</v>
       </c>
       <c r="C102" s="3">
-        <v>45442</v>
+        <v>45595</v>
       </c>
       <c r="D102" s="4">
         <v>0.3263888888888889</v>
@@ -2554,7 +2554,7 @@
         <v>9</v>
       </c>
       <c r="C103" s="3">
-        <v>45442</v>
+        <v>45595</v>
       </c>
       <c r="D103" s="4">
         <v>0.3263888888888889</v>
@@ -2574,7 +2574,7 @@
         <v>10</v>
       </c>
       <c r="C104" s="3">
-        <v>45442</v>
+        <v>45595</v>
       </c>
       <c r="D104" s="4">
         <v>0.3263888888888889</v>
@@ -2594,7 +2594,7 @@
         <v>11</v>
       </c>
       <c r="C105" s="3">
-        <v>45442</v>
+        <v>45595</v>
       </c>
       <c r="D105" s="4">
         <v>0.3263888888888889</v>
@@ -2614,7 +2614,7 @@
         <v>12</v>
       </c>
       <c r="C106" s="3">
-        <v>45442</v>
+        <v>45595</v>
       </c>
       <c r="D106" s="4">
         <v>0.3263888888888889</v>
@@ -2634,7 +2634,7 @@
         <v>13</v>
       </c>
       <c r="C107" s="3">
-        <v>45442</v>
+        <v>45595</v>
       </c>
       <c r="D107" s="4">
         <v>0.3263888888888889</v>
@@ -2654,7 +2654,7 @@
         <v>14</v>
       </c>
       <c r="C108" s="3">
-        <v>45442</v>
+        <v>45595</v>
       </c>
       <c r="D108" s="4">
         <v>0.3263888888888889</v>
@@ -2674,7 +2674,7 @@
         <v>16</v>
       </c>
       <c r="C109" s="3">
-        <v>45442</v>
+        <v>45595</v>
       </c>
       <c r="D109" s="4">
         <v>0.3263888888888889</v>
@@ -2694,7 +2694,7 @@
         <v>21</v>
       </c>
       <c r="C110" s="3">
-        <v>45442</v>
+        <v>45595</v>
       </c>
       <c r="D110" s="4">
         <v>0.3263888888888889</v>
@@ -2714,7 +2714,7 @@
         <v>17</v>
       </c>
       <c r="C111" s="3">
-        <v>45442</v>
+        <v>45595</v>
       </c>
       <c r="D111" s="4">
         <v>0.3263888888888889</v>
@@ -2734,7 +2734,7 @@
         <v>18</v>
       </c>
       <c r="C112" s="3">
-        <v>45442</v>
+        <v>45595</v>
       </c>
       <c r="D112" s="4">
         <v>0.3263888888888889</v>
@@ -2754,7 +2754,7 @@
         <v>19</v>
       </c>
       <c r="C113" s="3">
-        <v>45442</v>
+        <v>45595</v>
       </c>
       <c r="D113" s="4">
         <v>0.3263888888888889</v>
@@ -2774,10 +2774,10 @@
         <v>6</v>
       </c>
       <c r="C114" s="3">
-        <v>45442</v>
+        <v>45595</v>
       </c>
       <c r="D114" s="4">
-        <v>0.50347222222222221</v>
+        <v>0.50138888888888888</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>7</v>
@@ -2794,7 +2794,7 @@
         <v>9</v>
       </c>
       <c r="C115" s="3">
-        <v>45442</v>
+        <v>45595</v>
       </c>
       <c r="D115" s="4">
         <v>0.50347222222222221</v>
@@ -2814,7 +2814,7 @@
         <v>10</v>
       </c>
       <c r="C116" s="3">
-        <v>45442</v>
+        <v>45595</v>
       </c>
       <c r="D116" s="4">
         <v>0.50347222222222221</v>
@@ -2834,10 +2834,10 @@
         <v>11</v>
       </c>
       <c r="C117" s="3">
-        <v>45442</v>
+        <v>45595</v>
       </c>
       <c r="D117" s="4">
-        <v>0.50347222222222221</v>
+        <v>0.50138888888888888</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>7</v>
@@ -2854,10 +2854,10 @@
         <v>12</v>
       </c>
       <c r="C118" s="3">
-        <v>45442</v>
+        <v>45595</v>
       </c>
       <c r="D118" s="4">
-        <v>0.50347222222222221</v>
+        <v>0.50138888888888888</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>7</v>
@@ -2874,7 +2874,7 @@
         <v>13</v>
       </c>
       <c r="C119" s="3">
-        <v>45442</v>
+        <v>45595</v>
       </c>
       <c r="D119" s="4">
         <v>0.50347222222222221</v>
@@ -2894,7 +2894,7 @@
         <v>14</v>
       </c>
       <c r="C120" s="3">
-        <v>45442</v>
+        <v>45595</v>
       </c>
       <c r="D120" s="4">
         <v>0.50347222222222221</v>
@@ -2914,7 +2914,7 @@
         <v>16</v>
       </c>
       <c r="C121" s="3">
-        <v>45442</v>
+        <v>45595</v>
       </c>
       <c r="D121" s="4">
         <v>0.50347222222222221</v>
@@ -2934,7 +2934,7 @@
         <v>21</v>
       </c>
       <c r="C122" s="3">
-        <v>45442</v>
+        <v>45595</v>
       </c>
       <c r="D122" s="4">
         <v>0.50347222222222221</v>
@@ -2954,7 +2954,7 @@
         <v>17</v>
       </c>
       <c r="C123" s="3">
-        <v>45442</v>
+        <v>45595</v>
       </c>
       <c r="D123" s="4">
         <v>0.50347222222222221</v>
@@ -2974,7 +2974,7 @@
         <v>18</v>
       </c>
       <c r="C124" s="3">
-        <v>45442</v>
+        <v>45595</v>
       </c>
       <c r="D124" s="4">
         <v>0.50347222222222221</v>
@@ -2994,7 +2994,7 @@
         <v>19</v>
       </c>
       <c r="C125" s="3">
-        <v>45442</v>
+        <v>45595</v>
       </c>
       <c r="D125" s="4">
         <v>0.50347222222222221</v>
@@ -3014,7 +3014,7 @@
         <v>6</v>
       </c>
       <c r="C126" s="3">
-        <v>45442</v>
+        <v>45595</v>
       </c>
       <c r="D126" s="4">
         <v>0.57638888888888884</v>
@@ -3034,10 +3034,10 @@
         <v>9</v>
       </c>
       <c r="C127" s="3">
-        <v>45442</v>
+        <v>45595</v>
       </c>
       <c r="D127" s="4">
-        <v>0.57638888888888884</v>
+        <v>0.57986111111111116</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>7</v>
@@ -3054,7 +3054,7 @@
         <v>10</v>
       </c>
       <c r="C128" s="3">
-        <v>45442</v>
+        <v>45595</v>
       </c>
       <c r="D128" s="4">
         <v>0.57638888888888884</v>
@@ -3074,10 +3074,10 @@
         <v>11</v>
       </c>
       <c r="C129" s="3">
-        <v>45442</v>
+        <v>45595</v>
       </c>
       <c r="D129" s="4">
-        <v>0.57638888888888884</v>
+        <v>0.58194444444444449</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>7</v>
@@ -3094,7 +3094,7 @@
         <v>12</v>
       </c>
       <c r="C130" s="3">
-        <v>45442</v>
+        <v>45595</v>
       </c>
       <c r="D130" s="4">
         <v>0.57638888888888884</v>
@@ -3114,10 +3114,10 @@
         <v>13</v>
       </c>
       <c r="C131" s="3">
-        <v>45442</v>
+        <v>45595</v>
       </c>
       <c r="D131" s="4">
-        <v>0.57638888888888884</v>
+        <v>0.57986111111111116</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>7</v>
@@ -3134,7 +3134,7 @@
         <v>14</v>
       </c>
       <c r="C132" s="3">
-        <v>45442</v>
+        <v>45595</v>
       </c>
       <c r="D132" s="4">
         <v>0.57638888888888884</v>
@@ -3154,10 +3154,10 @@
         <v>16</v>
       </c>
       <c r="C133" s="3">
-        <v>45442</v>
+        <v>45595</v>
       </c>
       <c r="D133" s="4">
-        <v>0.57638888888888884</v>
+        <v>0.58194444444444449</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>7</v>
@@ -3174,7 +3174,7 @@
         <v>21</v>
       </c>
       <c r="C134" s="3">
-        <v>45442</v>
+        <v>45595</v>
       </c>
       <c r="D134" s="4">
         <v>0.57638888888888884</v>
@@ -3194,10 +3194,10 @@
         <v>17</v>
       </c>
       <c r="C135" s="3">
-        <v>45442</v>
+        <v>45595</v>
       </c>
       <c r="D135" s="4">
-        <v>0.57638888888888884</v>
+        <v>0.57986111111111116</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>7</v>
@@ -3214,7 +3214,7 @@
         <v>18</v>
       </c>
       <c r="C136" s="3">
-        <v>45442</v>
+        <v>45595</v>
       </c>
       <c r="D136" s="4">
         <v>0.57638888888888884</v>
@@ -3234,7 +3234,7 @@
         <v>19</v>
       </c>
       <c r="C137" s="3">
-        <v>45442</v>
+        <v>45595</v>
       </c>
       <c r="D137" s="4">
         <v>0.57638888888888884</v>
@@ -3254,7 +3254,7 @@
         <v>6</v>
       </c>
       <c r="C138" s="3">
-        <v>45442</v>
+        <v>45595</v>
       </c>
       <c r="D138" s="4">
         <v>0.75347222222222221</v>
@@ -3274,7 +3274,7 @@
         <v>9</v>
       </c>
       <c r="C139" s="3">
-        <v>45442</v>
+        <v>45595</v>
       </c>
       <c r="D139" s="4">
         <v>0.75347222222222221</v>
@@ -3294,7 +3294,7 @@
         <v>10</v>
       </c>
       <c r="C140" s="3">
-        <v>45442</v>
+        <v>45595</v>
       </c>
       <c r="D140" s="4">
         <v>0.75347222222222221</v>
@@ -3314,7 +3314,7 @@
         <v>11</v>
       </c>
       <c r="C141" s="3">
-        <v>45442</v>
+        <v>45595</v>
       </c>
       <c r="D141" s="4">
         <v>0.75347222222222221</v>
@@ -3334,7 +3334,7 @@
         <v>12</v>
       </c>
       <c r="C142" s="3">
-        <v>45442</v>
+        <v>45595</v>
       </c>
       <c r="D142" s="4">
         <v>0.75347222222222221</v>
@@ -3354,10 +3354,10 @@
         <v>13</v>
       </c>
       <c r="C143" s="3">
-        <v>45442</v>
+        <v>45595</v>
       </c>
       <c r="D143" s="4">
-        <v>0.75347222222222221</v>
+        <v>0.75138888888888888</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>7</v>
@@ -3374,7 +3374,7 @@
         <v>14</v>
       </c>
       <c r="C144" s="3">
-        <v>45442</v>
+        <v>45595</v>
       </c>
       <c r="D144" s="4">
         <v>0.75347222222222221</v>
@@ -3394,7 +3394,7 @@
         <v>16</v>
       </c>
       <c r="C145" s="3">
-        <v>45442</v>
+        <v>45595</v>
       </c>
       <c r="D145" s="4">
         <v>0.75347222222222221</v>
@@ -3414,10 +3414,10 @@
         <v>21</v>
       </c>
       <c r="C146" s="3">
-        <v>45442</v>
+        <v>45595</v>
       </c>
       <c r="D146" s="4">
-        <v>0.75347222222222221</v>
+        <v>0.75138888888888888</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>7</v>
@@ -3434,7 +3434,7 @@
         <v>17</v>
       </c>
       <c r="C147" s="3">
-        <v>45442</v>
+        <v>45595</v>
       </c>
       <c r="D147" s="4">
         <v>0.75347222222222221</v>
@@ -3454,7 +3454,7 @@
         <v>18</v>
       </c>
       <c r="C148" s="3">
-        <v>45442</v>
+        <v>45595</v>
       </c>
       <c r="D148" s="4">
         <v>0.75347222222222221</v>
@@ -3474,7 +3474,7 @@
         <v>19</v>
       </c>
       <c r="C149" s="3">
-        <v>45442</v>
+        <v>45595</v>
       </c>
       <c r="D149" s="4">
         <v>0.75347222222222221</v>
@@ -3494,7 +3494,7 @@
         <v>6</v>
       </c>
       <c r="C150" s="3">
-        <v>45443</v>
+        <v>45596</v>
       </c>
       <c r="D150" s="4">
         <v>0.3263888888888889</v>
@@ -3514,10 +3514,10 @@
         <v>9</v>
       </c>
       <c r="C151" s="3">
-        <v>45443</v>
+        <v>45596</v>
       </c>
       <c r="D151" s="4">
-        <v>0.3263888888888889</v>
+        <v>0.32708333333333334</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>7</v>
@@ -3534,7 +3534,7 @@
         <v>10</v>
       </c>
       <c r="C152" s="3">
-        <v>45443</v>
+        <v>45596</v>
       </c>
       <c r="D152" s="4">
         <v>0.3263888888888889</v>
@@ -3554,7 +3554,7 @@
         <v>11</v>
       </c>
       <c r="C153" s="3">
-        <v>45443</v>
+        <v>45596</v>
       </c>
       <c r="D153" s="4">
         <v>0.3263888888888889</v>
@@ -3574,7 +3574,7 @@
         <v>12</v>
       </c>
       <c r="C154" s="3">
-        <v>45443</v>
+        <v>45596</v>
       </c>
       <c r="D154" s="4">
         <v>0.3263888888888889</v>
@@ -3594,10 +3594,10 @@
         <v>13</v>
       </c>
       <c r="C155" s="3">
-        <v>45443</v>
+        <v>45596</v>
       </c>
       <c r="D155" s="4">
-        <v>0.3263888888888889</v>
+        <v>0.33194444444444443</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>7</v>
@@ -3614,7 +3614,7 @@
         <v>14</v>
       </c>
       <c r="C156" s="3">
-        <v>45443</v>
+        <v>45596</v>
       </c>
       <c r="D156" s="4">
         <v>0.3263888888888889</v>
@@ -3634,10 +3634,10 @@
         <v>16</v>
       </c>
       <c r="C157" s="3">
-        <v>45443</v>
+        <v>45596</v>
       </c>
       <c r="D157" s="4">
-        <v>0.3263888888888889</v>
+        <v>0.32847222222222222</v>
       </c>
       <c r="E157" s="2" t="s">
         <v>7</v>
@@ -3654,10 +3654,10 @@
         <v>21</v>
       </c>
       <c r="C158" s="3">
-        <v>45443</v>
+        <v>45596</v>
       </c>
       <c r="D158" s="4">
-        <v>0.3263888888888889</v>
+        <v>0.3298611111111111</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>7</v>
@@ -3674,10 +3674,10 @@
         <v>17</v>
       </c>
       <c r="C159" s="3">
-        <v>45443</v>
+        <v>45596</v>
       </c>
       <c r="D159" s="4">
-        <v>0.3263888888888889</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="E159" s="2" t="s">
         <v>7</v>
@@ -3694,10 +3694,10 @@
         <v>18</v>
       </c>
       <c r="C160" s="3">
-        <v>45443</v>
+        <v>45596</v>
       </c>
       <c r="D160" s="4">
-        <v>0.3263888888888889</v>
+        <v>0.32708333333333334</v>
       </c>
       <c r="E160" s="2" t="s">
         <v>7</v>
@@ -3714,7 +3714,7 @@
         <v>19</v>
       </c>
       <c r="C161" s="3">
-        <v>45443</v>
+        <v>45596</v>
       </c>
       <c r="D161" s="4">
         <v>0.3263888888888889</v>
@@ -3734,10 +3734,10 @@
         <v>6</v>
       </c>
       <c r="C162" s="3">
-        <v>45443</v>
+        <v>45596</v>
       </c>
       <c r="D162" s="4">
-        <v>0.50347222222222221</v>
+        <v>0.50138888888888888</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>7</v>
@@ -3754,7 +3754,7 @@
         <v>9</v>
       </c>
       <c r="C163" s="3">
-        <v>45443</v>
+        <v>45596</v>
       </c>
       <c r="D163" s="4">
         <v>0.50347222222222221</v>
@@ -3774,7 +3774,7 @@
         <v>10</v>
       </c>
       <c r="C164" s="3">
-        <v>45443</v>
+        <v>45596</v>
       </c>
       <c r="D164" s="4">
         <v>0.50347222222222221</v>
@@ -3794,10 +3794,10 @@
         <v>11</v>
       </c>
       <c r="C165" s="3">
-        <v>45443</v>
+        <v>45596</v>
       </c>
       <c r="D165" s="4">
-        <v>0.50347222222222221</v>
+        <v>0.50138888888888888</v>
       </c>
       <c r="E165" s="2" t="s">
         <v>7</v>
@@ -3814,7 +3814,7 @@
         <v>12</v>
       </c>
       <c r="C166" s="3">
-        <v>45443</v>
+        <v>45596</v>
       </c>
       <c r="D166" s="4">
         <v>0.50347222222222221</v>
@@ -3834,7 +3834,7 @@
         <v>13</v>
       </c>
       <c r="C167" s="3">
-        <v>45443</v>
+        <v>45596</v>
       </c>
       <c r="D167" s="4">
         <v>0.50347222222222221</v>
@@ -3854,10 +3854,10 @@
         <v>14</v>
       </c>
       <c r="C168" s="3">
-        <v>45443</v>
+        <v>45596</v>
       </c>
       <c r="D168" s="4">
-        <v>0.50347222222222221</v>
+        <v>0.50138888888888888</v>
       </c>
       <c r="E168" s="2" t="s">
         <v>7</v>
@@ -3874,7 +3874,7 @@
         <v>16</v>
       </c>
       <c r="C169" s="3">
-        <v>45443</v>
+        <v>45596</v>
       </c>
       <c r="D169" s="4">
         <v>0.50347222222222221</v>
@@ -3894,10 +3894,10 @@
         <v>21</v>
       </c>
       <c r="C170" s="3">
-        <v>45443</v>
+        <v>45596</v>
       </c>
       <c r="D170" s="4">
-        <v>0.50347222222222221</v>
+        <v>0.50694444444444442</v>
       </c>
       <c r="E170" s="2" t="s">
         <v>7</v>
@@ -3914,10 +3914,10 @@
         <v>17</v>
       </c>
       <c r="C171" s="3">
-        <v>45443</v>
+        <v>45596</v>
       </c>
       <c r="D171" s="4">
-        <v>0.50347222222222221</v>
+        <v>0.50069444444444444</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>7</v>
@@ -3934,7 +3934,7 @@
         <v>18</v>
       </c>
       <c r="C172" s="3">
-        <v>45443</v>
+        <v>45596</v>
       </c>
       <c r="D172" s="4">
         <v>0.50347222222222221</v>
@@ -3954,7 +3954,7 @@
         <v>19</v>
       </c>
       <c r="C173" s="3">
-        <v>45443</v>
+        <v>45596</v>
       </c>
       <c r="D173" s="4">
         <v>0.50347222222222221</v>
@@ -3974,7 +3974,7 @@
         <v>6</v>
       </c>
       <c r="C174" s="3">
-        <v>45443</v>
+        <v>45596</v>
       </c>
       <c r="D174" s="4">
         <v>0.57638888888888884</v>
@@ -3994,10 +3994,10 @@
         <v>9</v>
       </c>
       <c r="C175" s="3">
-        <v>45443</v>
+        <v>45596</v>
       </c>
       <c r="D175" s="4">
-        <v>0.57638888888888884</v>
+        <v>0.58194444444444449</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>7</v>
@@ -4014,7 +4014,7 @@
         <v>10</v>
       </c>
       <c r="C176" s="3">
-        <v>45443</v>
+        <v>45596</v>
       </c>
       <c r="D176" s="4">
         <v>0.57638888888888884</v>
@@ -4034,7 +4034,7 @@
         <v>11</v>
       </c>
       <c r="C177" s="3">
-        <v>45443</v>
+        <v>45596</v>
       </c>
       <c r="D177" s="4">
         <v>0.57638888888888884</v>
@@ -4054,10 +4054,10 @@
         <v>12</v>
       </c>
       <c r="C178" s="3">
-        <v>45443</v>
+        <v>45596</v>
       </c>
       <c r="D178" s="4">
-        <v>0.57638888888888884</v>
+        <v>0.57708333333333328</v>
       </c>
       <c r="E178" s="2" t="s">
         <v>7</v>
@@ -4074,10 +4074,10 @@
         <v>13</v>
       </c>
       <c r="C179" s="3">
-        <v>45443</v>
+        <v>45596</v>
       </c>
       <c r="D179" s="4">
-        <v>0.57638888888888884</v>
+        <v>0.57986111111111116</v>
       </c>
       <c r="E179" s="2" t="s">
         <v>7</v>
@@ -4094,10 +4094,10 @@
         <v>14</v>
       </c>
       <c r="C180" s="3">
-        <v>45443</v>
+        <v>45596</v>
       </c>
       <c r="D180" s="4">
-        <v>0.57638888888888884</v>
+        <v>0.58194444444444449</v>
       </c>
       <c r="E180" s="2" t="s">
         <v>7</v>
@@ -4114,7 +4114,7 @@
         <v>16</v>
       </c>
       <c r="C181" s="3">
-        <v>45443</v>
+        <v>45596</v>
       </c>
       <c r="D181" s="4">
         <v>0.57638888888888884</v>
@@ -4134,10 +4134,10 @@
         <v>21</v>
       </c>
       <c r="C182" s="3">
-        <v>45443</v>
+        <v>45596</v>
       </c>
       <c r="D182" s="4">
-        <v>0.57638888888888884</v>
+        <v>0.58194444444444449</v>
       </c>
       <c r="E182" s="2" t="s">
         <v>7</v>
@@ -4154,10 +4154,10 @@
         <v>17</v>
       </c>
       <c r="C183" s="3">
-        <v>45443</v>
+        <v>45596</v>
       </c>
       <c r="D183" s="4">
-        <v>0.57638888888888884</v>
+        <v>0.57986111111111116</v>
       </c>
       <c r="E183" s="2" t="s">
         <v>7</v>
@@ -4174,10 +4174,10 @@
         <v>18</v>
       </c>
       <c r="C184" s="3">
-        <v>45443</v>
+        <v>45596</v>
       </c>
       <c r="D184" s="4">
-        <v>0.57638888888888884</v>
+        <v>0.57291666666666663</v>
       </c>
       <c r="E184" s="2" t="s">
         <v>7</v>
@@ -4194,7 +4194,7 @@
         <v>19</v>
       </c>
       <c r="C185" s="3">
-        <v>45443</v>
+        <v>45596</v>
       </c>
       <c r="D185" s="4">
         <v>0.57638888888888884</v>
@@ -4214,7 +4214,7 @@
         <v>6</v>
       </c>
       <c r="C186" s="3">
-        <v>45443</v>
+        <v>45596</v>
       </c>
       <c r="D186" s="4">
         <v>0.75347222222222221</v>
@@ -4234,7 +4234,7 @@
         <v>9</v>
       </c>
       <c r="C187" s="3">
-        <v>45443</v>
+        <v>45596</v>
       </c>
       <c r="D187" s="4">
         <v>0.75347222222222221</v>
@@ -4254,7 +4254,7 @@
         <v>10</v>
       </c>
       <c r="C188" s="3">
-        <v>45443</v>
+        <v>45596</v>
       </c>
       <c r="D188" s="4">
         <v>0.75347222222222221</v>
@@ -4274,10 +4274,10 @@
         <v>11</v>
       </c>
       <c r="C189" s="3">
-        <v>45443</v>
+        <v>45596</v>
       </c>
       <c r="D189" s="4">
-        <v>0.75347222222222221</v>
+        <v>0.75138888888888888</v>
       </c>
       <c r="E189" s="2" t="s">
         <v>7</v>
@@ -4294,10 +4294,10 @@
         <v>12</v>
       </c>
       <c r="C190" s="3">
-        <v>45443</v>
+        <v>45596</v>
       </c>
       <c r="D190" s="4">
-        <v>0.75347222222222221</v>
+        <v>0.75208333333333333</v>
       </c>
       <c r="E190" s="2" t="s">
         <v>7</v>
@@ -4314,10 +4314,10 @@
         <v>13</v>
       </c>
       <c r="C191" s="3">
-        <v>45443</v>
+        <v>45596</v>
       </c>
       <c r="D191" s="4">
-        <v>0.75347222222222221</v>
+        <v>0.75138888888888888</v>
       </c>
       <c r="E191" s="2" t="s">
         <v>7</v>
@@ -4334,7 +4334,7 @@
         <v>14</v>
       </c>
       <c r="C192" s="3">
-        <v>45443</v>
+        <v>45596</v>
       </c>
       <c r="D192" s="4">
         <v>0.75347222222222221</v>
@@ -4354,10 +4354,10 @@
         <v>16</v>
       </c>
       <c r="C193" s="3">
-        <v>45443</v>
+        <v>45596</v>
       </c>
       <c r="D193" s="4">
-        <v>0.75347222222222221</v>
+        <v>0.75416666666666665</v>
       </c>
       <c r="E193" s="2" t="s">
         <v>7</v>
@@ -4374,7 +4374,7 @@
         <v>21</v>
       </c>
       <c r="C194" s="3">
-        <v>45443</v>
+        <v>45596</v>
       </c>
       <c r="D194" s="4">
         <v>0.75347222222222221</v>
@@ -4394,10 +4394,10 @@
         <v>17</v>
       </c>
       <c r="C195" s="3">
-        <v>45443</v>
+        <v>45596</v>
       </c>
       <c r="D195" s="4">
-        <v>0.75347222222222221</v>
+        <v>0.75138888888888888</v>
       </c>
       <c r="E195" s="2" t="s">
         <v>7</v>
@@ -4414,7 +4414,7 @@
         <v>18</v>
       </c>
       <c r="C196" s="3">
-        <v>45443</v>
+        <v>45596</v>
       </c>
       <c r="D196" s="4">
         <v>0.75347222222222221</v>
@@ -4434,7 +4434,7 @@
         <v>19</v>
       </c>
       <c r="C197" s="3">
-        <v>45443</v>
+        <v>45596</v>
       </c>
       <c r="D197" s="4">
         <v>0.75347222222222221</v>
@@ -4454,7 +4454,7 @@
         <v>6</v>
       </c>
       <c r="C198" s="3">
-        <v>45444</v>
+        <v>45597</v>
       </c>
       <c r="D198" s="4">
         <v>0.3125</v>
@@ -4474,7 +4474,7 @@
         <v>9</v>
       </c>
       <c r="C199" s="3">
-        <v>45444</v>
+        <v>45597</v>
       </c>
       <c r="D199" s="4">
         <v>0.3125</v>
@@ -4494,7 +4494,7 @@
         <v>10</v>
       </c>
       <c r="C200" s="3">
-        <v>45444</v>
+        <v>45597</v>
       </c>
       <c r="D200" s="4">
         <v>0.3263888888888889</v>
@@ -4514,7 +4514,7 @@
         <v>11</v>
       </c>
       <c r="C201" s="3">
-        <v>45444</v>
+        <v>45597</v>
       </c>
       <c r="D201" s="4">
         <v>0.3263888888888889</v>
@@ -4534,10 +4534,10 @@
         <v>12</v>
       </c>
       <c r="C202" s="3">
-        <v>45444</v>
+        <v>45597</v>
       </c>
       <c r="D202" s="4">
-        <v>0.3263888888888889</v>
+        <v>0.32569444444444445</v>
       </c>
       <c r="E202" s="2" t="s">
         <v>7</v>
@@ -4554,7 +4554,7 @@
         <v>13</v>
       </c>
       <c r="C203" s="3">
-        <v>45444</v>
+        <v>45597</v>
       </c>
       <c r="D203" s="4">
         <v>0.3263888888888889</v>
@@ -4574,7 +4574,7 @@
         <v>14</v>
       </c>
       <c r="C204" s="3">
-        <v>45444</v>
+        <v>45597</v>
       </c>
       <c r="D204" s="4">
         <v>0.3263888888888889</v>
@@ -4594,10 +4594,10 @@
         <v>15</v>
       </c>
       <c r="C205" s="3">
-        <v>45444</v>
+        <v>45597</v>
       </c>
       <c r="D205" s="4">
-        <v>0.3263888888888889</v>
+        <v>0.30416666666666664</v>
       </c>
       <c r="E205" s="2" t="s">
         <v>7</v>
@@ -4614,7 +4614,7 @@
         <v>16</v>
       </c>
       <c r="C206" s="3">
-        <v>45444</v>
+        <v>45597</v>
       </c>
       <c r="D206" s="4">
         <v>0.3263888888888889</v>
@@ -4634,7 +4634,7 @@
         <v>21</v>
       </c>
       <c r="C207" s="3">
-        <v>45444</v>
+        <v>45597</v>
       </c>
       <c r="D207" s="4">
         <v>0.3263888888888889</v>
@@ -4654,10 +4654,10 @@
         <v>17</v>
       </c>
       <c r="C208" s="3">
-        <v>45444</v>
+        <v>45597</v>
       </c>
       <c r="D208" s="4">
-        <v>0.3263888888888889</v>
+        <v>0.2986111111111111</v>
       </c>
       <c r="E208" s="2" t="s">
         <v>7</v>
@@ -4674,7 +4674,7 @@
         <v>18</v>
       </c>
       <c r="C209" s="3">
-        <v>45444</v>
+        <v>45597</v>
       </c>
       <c r="D209" s="4">
         <v>0.3263888888888889</v>
@@ -4694,7 +4694,7 @@
         <v>19</v>
       </c>
       <c r="C210" s="3">
-        <v>45444</v>
+        <v>45597</v>
       </c>
       <c r="D210" s="4">
         <v>0.3263888888888889</v>
@@ -4714,7 +4714,7 @@
         <v>6</v>
       </c>
       <c r="C211" s="3">
-        <v>45444</v>
+        <v>45597</v>
       </c>
       <c r="D211" s="4">
         <v>0.52777777777777779</v>
@@ -4734,7 +4734,7 @@
         <v>9</v>
       </c>
       <c r="C212" s="3">
-        <v>45444</v>
+        <v>45597</v>
       </c>
       <c r="D212" s="4">
         <v>0.5</v>
@@ -4754,7 +4754,7 @@
         <v>10</v>
       </c>
       <c r="C213" s="3">
-        <v>45444</v>
+        <v>45597</v>
       </c>
       <c r="D213" s="4">
         <v>0.50347222222222221</v>
@@ -4774,7 +4774,7 @@
         <v>11</v>
       </c>
       <c r="C214" s="3">
-        <v>45444</v>
+        <v>45597</v>
       </c>
       <c r="D214" s="4">
         <v>0.50347222222222221</v>
@@ -4794,10 +4794,10 @@
         <v>12</v>
       </c>
       <c r="C215" s="3">
-        <v>45444</v>
+        <v>45597</v>
       </c>
       <c r="D215" s="4">
-        <v>0.50347222222222221</v>
+        <v>0.50138888888888888</v>
       </c>
       <c r="E215" s="2" t="s">
         <v>7</v>
@@ -4814,7 +4814,7 @@
         <v>13</v>
       </c>
       <c r="C216" s="3">
-        <v>45444</v>
+        <v>45597</v>
       </c>
       <c r="D216" s="4">
         <v>0.50347222222222221</v>
@@ -4834,10 +4834,10 @@
         <v>14</v>
       </c>
       <c r="C217" s="3">
-        <v>45444</v>
+        <v>45597</v>
       </c>
       <c r="D217" s="4">
-        <v>0.50347222222222221</v>
+        <v>0.50138888888888888</v>
       </c>
       <c r="E217" s="2" t="s">
         <v>7</v>
@@ -4854,7 +4854,7 @@
         <v>15</v>
       </c>
       <c r="C218" s="3">
-        <v>45444</v>
+        <v>45597</v>
       </c>
       <c r="D218" s="4">
         <v>0.50347222222222221</v>
@@ -4874,7 +4874,7 @@
         <v>16</v>
       </c>
       <c r="C219" s="3">
-        <v>45444</v>
+        <v>45597</v>
       </c>
       <c r="D219" s="4">
         <v>0.50347222222222221</v>
@@ -4894,10 +4894,10 @@
         <v>21</v>
       </c>
       <c r="C220" s="3">
-        <v>45444</v>
+        <v>45597</v>
       </c>
       <c r="D220" s="4">
-        <v>0.50347222222222221</v>
+        <v>0.5</v>
       </c>
       <c r="E220" s="2" t="s">
         <v>7</v>
@@ -4914,7 +4914,7 @@
         <v>17</v>
       </c>
       <c r="C221" s="3">
-        <v>45444</v>
+        <v>45597</v>
       </c>
       <c r="D221" s="4">
         <v>0.50347222222222221</v>
@@ -4934,7 +4934,7 @@
         <v>18</v>
       </c>
       <c r="C222" s="3">
-        <v>45444</v>
+        <v>45597</v>
       </c>
       <c r="D222" s="4">
         <v>0.50347222222222221</v>
@@ -4954,7 +4954,7 @@
         <v>19</v>
       </c>
       <c r="C223" s="3">
-        <v>45444</v>
+        <v>45597</v>
       </c>
       <c r="D223" s="4">
         <v>0.50347222222222221</v>
@@ -4974,7 +4974,7 @@
         <v>6</v>
       </c>
       <c r="C224" s="3">
-        <v>45444</v>
+        <v>45597</v>
       </c>
       <c r="D224" s="4">
         <v>0.57638888888888884</v>
@@ -4994,7 +4994,7 @@
         <v>9</v>
       </c>
       <c r="C225" s="3">
-        <v>45444</v>
+        <v>45597</v>
       </c>
       <c r="D225" s="4">
         <v>0.58333333333333337</v>
@@ -5014,7 +5014,7 @@
         <v>10</v>
       </c>
       <c r="C226" s="3">
-        <v>45444</v>
+        <v>45597</v>
       </c>
       <c r="D226" s="4">
         <v>0.57638888888888884</v>
@@ -5034,7 +5034,7 @@
         <v>11</v>
       </c>
       <c r="C227" s="3">
-        <v>45444</v>
+        <v>45597</v>
       </c>
       <c r="D227" s="4">
         <v>0.57638888888888884</v>
@@ -5054,10 +5054,10 @@
         <v>12</v>
       </c>
       <c r="C228" s="3">
-        <v>45444</v>
+        <v>45597</v>
       </c>
       <c r="D228" s="4">
-        <v>0.57638888888888884</v>
+        <v>0.57986111111111116</v>
       </c>
       <c r="E228" s="2" t="s">
         <v>7</v>
@@ -5074,7 +5074,7 @@
         <v>13</v>
       </c>
       <c r="C229" s="3">
-        <v>45444</v>
+        <v>45597</v>
       </c>
       <c r="D229" s="4">
         <v>0.57638888888888884</v>
@@ -5094,10 +5094,10 @@
         <v>14</v>
       </c>
       <c r="C230" s="3">
-        <v>45444</v>
+        <v>45597</v>
       </c>
       <c r="D230" s="4">
-        <v>0.57638888888888884</v>
+        <v>0.58194444444444449</v>
       </c>
       <c r="E230" s="2" t="s">
         <v>7</v>
@@ -5114,10 +5114,10 @@
         <v>15</v>
       </c>
       <c r="C231" s="3">
-        <v>45444</v>
+        <v>45597</v>
       </c>
       <c r="D231" s="4">
-        <v>0.57638888888888884</v>
+        <v>0.57986111111111116</v>
       </c>
       <c r="E231" s="2" t="s">
         <v>7</v>
@@ -5134,7 +5134,7 @@
         <v>16</v>
       </c>
       <c r="C232" s="3">
-        <v>45444</v>
+        <v>45597</v>
       </c>
       <c r="D232" s="4">
         <v>0.57638888888888884</v>
@@ -5154,7 +5154,7 @@
         <v>21</v>
       </c>
       <c r="C233" s="3">
-        <v>45444</v>
+        <v>45597</v>
       </c>
       <c r="D233" s="4">
         <v>0.57638888888888884</v>
@@ -5174,10 +5174,10 @@
         <v>17</v>
       </c>
       <c r="C234" s="3">
-        <v>45444</v>
+        <v>45597</v>
       </c>
       <c r="D234" s="4">
-        <v>0.57638888888888884</v>
+        <v>0.58194444444444449</v>
       </c>
       <c r="E234" s="2" t="s">
         <v>7</v>
@@ -5194,7 +5194,7 @@
         <v>18</v>
       </c>
       <c r="C235" s="3">
-        <v>45444</v>
+        <v>45597</v>
       </c>
       <c r="D235" s="4">
         <v>0.57638888888888884</v>
@@ -5214,10 +5214,10 @@
         <v>19</v>
       </c>
       <c r="C236" s="3">
-        <v>45444</v>
+        <v>45597</v>
       </c>
       <c r="D236" s="4">
-        <v>0.57638888888888884</v>
+        <v>0.57986111111111116</v>
       </c>
       <c r="E236" s="2" t="s">
         <v>7</v>
@@ -5234,7 +5234,7 @@
         <v>6</v>
       </c>
       <c r="C237" s="3">
-        <v>45444</v>
+        <v>45597</v>
       </c>
       <c r="D237" s="4">
         <v>0.75347222222222221</v>
@@ -5254,7 +5254,7 @@
         <v>9</v>
       </c>
       <c r="C238" s="3">
-        <v>45444</v>
+        <v>45597</v>
       </c>
       <c r="D238" s="4">
         <v>0.77083333333333337</v>
@@ -5274,10 +5274,10 @@
         <v>10</v>
       </c>
       <c r="C239" s="3">
-        <v>45444</v>
+        <v>45597</v>
       </c>
       <c r="D239" s="4">
-        <v>0.75347222222222221</v>
+        <v>0.75138888888888888</v>
       </c>
       <c r="E239" s="2" t="s">
         <v>7</v>
@@ -5294,7 +5294,7 @@
         <v>11</v>
       </c>
       <c r="C240" s="3">
-        <v>45444</v>
+        <v>45597</v>
       </c>
       <c r="D240" s="4">
         <v>0.75347222222222221</v>
@@ -5314,10 +5314,10 @@
         <v>12</v>
       </c>
       <c r="C241" s="3">
-        <v>45444</v>
+        <v>45597</v>
       </c>
       <c r="D241" s="4">
-        <v>0.75347222222222221</v>
+        <v>0.75763888888888886</v>
       </c>
       <c r="E241" s="2" t="s">
         <v>7</v>
@@ -5334,7 +5334,7 @@
         <v>13</v>
       </c>
       <c r="C242" s="3">
-        <v>45444</v>
+        <v>45597</v>
       </c>
       <c r="D242" s="4">
         <v>0.75347222222222221</v>
@@ -5354,10 +5354,10 @@
         <v>14</v>
       </c>
       <c r="C243" s="3">
-        <v>45444</v>
+        <v>45597</v>
       </c>
       <c r="D243" s="4">
-        <v>0.75347222222222221</v>
+        <v>0.75138888888888888</v>
       </c>
       <c r="E243" s="2" t="s">
         <v>7</v>
@@ -5374,7 +5374,7 @@
         <v>15</v>
       </c>
       <c r="C244" s="3">
-        <v>45444</v>
+        <v>45597</v>
       </c>
       <c r="D244" s="4">
         <v>0.75347222222222221</v>
@@ -5394,10 +5394,10 @@
         <v>16</v>
       </c>
       <c r="C245" s="3">
-        <v>45444</v>
+        <v>45597</v>
       </c>
       <c r="D245" s="4">
-        <v>0.75347222222222221</v>
+        <v>0.75208333333333333</v>
       </c>
       <c r="E245" s="2" t="s">
         <v>7</v>
@@ -5414,7 +5414,7 @@
         <v>21</v>
       </c>
       <c r="C246" s="3">
-        <v>45444</v>
+        <v>45597</v>
       </c>
       <c r="D246" s="4">
         <v>0.75347222222222221</v>
@@ -5434,10 +5434,10 @@
         <v>17</v>
       </c>
       <c r="C247" s="3">
-        <v>45444</v>
+        <v>45597</v>
       </c>
       <c r="D247" s="4">
-        <v>0.75347222222222221</v>
+        <v>0.75138888888888888</v>
       </c>
       <c r="E247" s="2" t="s">
         <v>7</v>
@@ -5454,7 +5454,7 @@
         <v>18</v>
       </c>
       <c r="C248" s="3">
-        <v>45444</v>
+        <v>45597</v>
       </c>
       <c r="D248" s="4">
         <v>0.75347222222222221</v>
@@ -5474,15 +5474,495 @@
         <v>19</v>
       </c>
       <c r="C249" s="3">
-        <v>45444</v>
+        <v>45597</v>
       </c>
       <c r="D249" s="4">
-        <v>0.75347222222222221</v>
+        <v>0.75</v>
       </c>
       <c r="E249" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F249" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>101</v>
+      </c>
+      <c r="B250" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C250" s="3">
+        <v>45598</v>
+      </c>
+      <c r="D250" s="4">
+        <v>0.3263888888888889</v>
+      </c>
+      <c r="E250" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F250" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>102</v>
+      </c>
+      <c r="B251" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C251" s="3">
+        <v>45598</v>
+      </c>
+      <c r="D251" s="4">
+        <v>0.3263888888888889</v>
+      </c>
+      <c r="E251" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F251" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>103</v>
+      </c>
+      <c r="B252" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C252" s="3">
+        <v>45598</v>
+      </c>
+      <c r="D252" s="4">
+        <v>0.3263888888888889</v>
+      </c>
+      <c r="E252" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F252" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>104</v>
+      </c>
+      <c r="B253" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C253" s="3">
+        <v>45598</v>
+      </c>
+      <c r="D253" s="4">
+        <v>0.3263888888888889</v>
+      </c>
+      <c r="E253" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F253" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>105</v>
+      </c>
+      <c r="B254" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C254" s="3">
+        <v>45598</v>
+      </c>
+      <c r="D254" s="4">
+        <v>0.3263888888888889</v>
+      </c>
+      <c r="E254" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F254" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>106</v>
+      </c>
+      <c r="B255" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C255" s="3">
+        <v>45598</v>
+      </c>
+      <c r="D255" s="4">
+        <v>0.3263888888888889</v>
+      </c>
+      <c r="E255" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F255" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>107</v>
+      </c>
+      <c r="B256" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C256" s="3">
+        <v>45598</v>
+      </c>
+      <c r="D256" s="4">
+        <v>0.3263888888888889</v>
+      </c>
+      <c r="E256" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F256" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>109</v>
+      </c>
+      <c r="B257" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C257" s="3">
+        <v>45598</v>
+      </c>
+      <c r="D257" s="4">
+        <v>0.3263888888888889</v>
+      </c>
+      <c r="E257" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F257" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>110</v>
+      </c>
+      <c r="B258" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C258" s="3">
+        <v>45598</v>
+      </c>
+      <c r="D258" s="4">
+        <v>0.3263888888888889</v>
+      </c>
+      <c r="E258" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F258" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>111</v>
+      </c>
+      <c r="B259" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C259" s="3">
+        <v>45598</v>
+      </c>
+      <c r="D259" s="4">
+        <v>0.3263888888888889</v>
+      </c>
+      <c r="E259" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F259" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>112</v>
+      </c>
+      <c r="B260" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C260" s="3">
+        <v>45598</v>
+      </c>
+      <c r="D260" s="4">
+        <v>0.3263888888888889</v>
+      </c>
+      <c r="E260" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F260" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>113</v>
+      </c>
+      <c r="B261" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C261" s="3">
+        <v>45598</v>
+      </c>
+      <c r="D261" s="4">
+        <v>0.3263888888888889</v>
+      </c>
+      <c r="E261" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F261" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>101</v>
+      </c>
+      <c r="B262" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C262" s="3">
+        <v>45598</v>
+      </c>
+      <c r="D262" s="4">
+        <v>0.50138888888888888</v>
+      </c>
+      <c r="E262" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F262" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>102</v>
+      </c>
+      <c r="B263" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C263" s="3">
+        <v>45598</v>
+      </c>
+      <c r="D263" s="4">
+        <v>0.50347222222222221</v>
+      </c>
+      <c r="E263" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F263" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>103</v>
+      </c>
+      <c r="B264" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C264" s="3">
+        <v>45598</v>
+      </c>
+      <c r="D264" s="4">
+        <v>0.50347222222222221</v>
+      </c>
+      <c r="E264" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F264" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>104</v>
+      </c>
+      <c r="B265" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C265" s="3">
+        <v>45598</v>
+      </c>
+      <c r="D265" s="4">
+        <v>0.50138888888888888</v>
+      </c>
+      <c r="E265" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F265" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>105</v>
+      </c>
+      <c r="B266" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C266" s="3">
+        <v>45598</v>
+      </c>
+      <c r="D266" s="4">
+        <v>0.50138888888888888</v>
+      </c>
+      <c r="E266" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F266" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>106</v>
+      </c>
+      <c r="B267" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C267" s="3">
+        <v>45598</v>
+      </c>
+      <c r="D267" s="4">
+        <v>0.50347222222222221</v>
+      </c>
+      <c r="E267" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F267" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>107</v>
+      </c>
+      <c r="B268" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C268" s="3">
+        <v>45598</v>
+      </c>
+      <c r="D268" s="4">
+        <v>0.50347222222222221</v>
+      </c>
+      <c r="E268" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F268" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>109</v>
+      </c>
+      <c r="B269" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C269" s="3">
+        <v>45598</v>
+      </c>
+      <c r="D269" s="4">
+        <v>0.50347222222222221</v>
+      </c>
+      <c r="E269" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F269" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>110</v>
+      </c>
+      <c r="B270" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C270" s="3">
+        <v>45598</v>
+      </c>
+      <c r="D270" s="4">
+        <v>0.50347222222222221</v>
+      </c>
+      <c r="E270" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F270" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>111</v>
+      </c>
+      <c r="B271" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C271" s="3">
+        <v>45598</v>
+      </c>
+      <c r="D271" s="4">
+        <v>0.50347222222222221</v>
+      </c>
+      <c r="E271" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F271" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>112</v>
+      </c>
+      <c r="B272" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C272" s="3">
+        <v>45598</v>
+      </c>
+      <c r="D272" s="4">
+        <v>0.50347222222222221</v>
+      </c>
+      <c r="E272" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F272" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <v>113</v>
+      </c>
+      <c r="B273" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C273" s="3">
+        <v>45598</v>
+      </c>
+      <c r="D273" s="4">
+        <v>0.50347222222222221</v>
+      </c>
+      <c r="E273" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F273" t="s">
         <v>22</v>
       </c>
     </row>

--- a/Libro1.xlsx
+++ b/Libro1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Neneco\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41C7084A-25E7-4D90-91AD-B3126E679F7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8D88638-9F42-4D0F-A549-DAB95FA3B729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7F645A55-2B9A-4592-9DCD-F528B75AEBB9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="23">
   <si>
     <t>User ID</t>
   </si>
@@ -488,8 +488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF8DA833-3C0F-476B-AE48-EB5CC07EE464}">
   <dimension ref="A1:I273"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A240" workbookViewId="0">
-      <selection activeCell="G255" sqref="G255"/>
+    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
+      <selection activeCell="F255" sqref="F255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5477,7 +5477,7 @@
         <v>45597</v>
       </c>
       <c r="D249" s="4">
-        <v>0.75</v>
+        <v>0.75694444444444442</v>
       </c>
       <c r="E249" s="2" t="s">
         <v>7</v>
@@ -5487,484 +5487,148 @@
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A250">
-        <v>101</v>
-      </c>
-      <c r="B250" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C250" s="3">
-        <v>45598</v>
-      </c>
-      <c r="D250" s="4">
-        <v>0.3263888888888889</v>
-      </c>
-      <c r="E250" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F250" t="s">
-        <v>8</v>
-      </c>
+      <c r="B250" s="2"/>
+      <c r="C250" s="3"/>
+      <c r="D250" s="4"/>
+      <c r="E250" s="2"/>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A251">
-        <v>102</v>
-      </c>
-      <c r="B251" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C251" s="3">
-        <v>45598</v>
-      </c>
-      <c r="D251" s="4">
-        <v>0.3263888888888889</v>
-      </c>
-      <c r="E251" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F251" t="s">
-        <v>8</v>
-      </c>
+      <c r="B251" s="2"/>
+      <c r="C251" s="3"/>
+      <c r="D251" s="4"/>
+      <c r="E251" s="2"/>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A252">
-        <v>103</v>
-      </c>
-      <c r="B252" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C252" s="3">
-        <v>45598</v>
-      </c>
-      <c r="D252" s="4">
-        <v>0.3263888888888889</v>
-      </c>
-      <c r="E252" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F252" t="s">
-        <v>8</v>
-      </c>
+      <c r="B252" s="2"/>
+      <c r="C252" s="3"/>
+      <c r="D252" s="4"/>
+      <c r="E252" s="2"/>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A253">
-        <v>104</v>
-      </c>
-      <c r="B253" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C253" s="3">
-        <v>45598</v>
-      </c>
-      <c r="D253" s="4">
-        <v>0.3263888888888889</v>
-      </c>
-      <c r="E253" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F253" t="s">
-        <v>8</v>
-      </c>
+      <c r="B253" s="2"/>
+      <c r="C253" s="3"/>
+      <c r="D253" s="4"/>
+      <c r="E253" s="2"/>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A254">
-        <v>105</v>
-      </c>
-      <c r="B254" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C254" s="3">
-        <v>45598</v>
-      </c>
-      <c r="D254" s="4">
-        <v>0.3263888888888889</v>
-      </c>
-      <c r="E254" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F254" t="s">
-        <v>8</v>
-      </c>
+      <c r="B254" s="2"/>
+      <c r="C254" s="3"/>
+      <c r="D254" s="4"/>
+      <c r="E254" s="2"/>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A255">
-        <v>106</v>
-      </c>
-      <c r="B255" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C255" s="3">
-        <v>45598</v>
-      </c>
-      <c r="D255" s="4">
-        <v>0.3263888888888889</v>
-      </c>
-      <c r="E255" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F255" t="s">
-        <v>8</v>
-      </c>
+      <c r="B255" s="2"/>
+      <c r="C255" s="3"/>
+      <c r="D255" s="4"/>
+      <c r="E255" s="2"/>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A256">
-        <v>107</v>
-      </c>
-      <c r="B256" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C256" s="3">
-        <v>45598</v>
-      </c>
-      <c r="D256" s="4">
-        <v>0.3263888888888889</v>
-      </c>
-      <c r="E256" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F256" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A257">
-        <v>109</v>
-      </c>
-      <c r="B257" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C257" s="3">
-        <v>45598</v>
-      </c>
-      <c r="D257" s="4">
-        <v>0.3263888888888889</v>
-      </c>
-      <c r="E257" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F257" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A258">
-        <v>110</v>
-      </c>
-      <c r="B258" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C258" s="3">
-        <v>45598</v>
-      </c>
-      <c r="D258" s="4">
-        <v>0.3263888888888889</v>
-      </c>
-      <c r="E258" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F258" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A259">
-        <v>111</v>
-      </c>
-      <c r="B259" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C259" s="3">
-        <v>45598</v>
-      </c>
-      <c r="D259" s="4">
-        <v>0.3263888888888889</v>
-      </c>
-      <c r="E259" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F259" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A260">
-        <v>112</v>
-      </c>
-      <c r="B260" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C260" s="3">
-        <v>45598</v>
-      </c>
-      <c r="D260" s="4">
-        <v>0.3263888888888889</v>
-      </c>
-      <c r="E260" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F260" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A261">
-        <v>113</v>
-      </c>
-      <c r="B261" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C261" s="3">
-        <v>45598</v>
-      </c>
-      <c r="D261" s="4">
-        <v>0.3263888888888889</v>
-      </c>
-      <c r="E261" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F261" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A262">
-        <v>101</v>
-      </c>
-      <c r="B262" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C262" s="3">
-        <v>45598</v>
-      </c>
-      <c r="D262" s="4">
-        <v>0.50138888888888888</v>
-      </c>
-      <c r="E262" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F262" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A263">
-        <v>102</v>
-      </c>
-      <c r="B263" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C263" s="3">
-        <v>45598</v>
-      </c>
-      <c r="D263" s="4">
-        <v>0.50347222222222221</v>
-      </c>
-      <c r="E263" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F263" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A264">
-        <v>103</v>
-      </c>
-      <c r="B264" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C264" s="3">
-        <v>45598</v>
-      </c>
-      <c r="D264" s="4">
-        <v>0.50347222222222221</v>
-      </c>
-      <c r="E264" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F264" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A265">
-        <v>104</v>
-      </c>
-      <c r="B265" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C265" s="3">
-        <v>45598</v>
-      </c>
-      <c r="D265" s="4">
-        <v>0.50138888888888888</v>
-      </c>
-      <c r="E265" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F265" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A266">
-        <v>105</v>
-      </c>
-      <c r="B266" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C266" s="3">
-        <v>45598</v>
-      </c>
-      <c r="D266" s="4">
-        <v>0.50138888888888888</v>
-      </c>
-      <c r="E266" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F266" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A267">
-        <v>106</v>
-      </c>
-      <c r="B267" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C267" s="3">
-        <v>45598</v>
-      </c>
-      <c r="D267" s="4">
-        <v>0.50347222222222221</v>
-      </c>
-      <c r="E267" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F267" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A268">
-        <v>107</v>
-      </c>
-      <c r="B268" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C268" s="3">
-        <v>45598</v>
-      </c>
-      <c r="D268" s="4">
-        <v>0.50347222222222221</v>
-      </c>
-      <c r="E268" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F268" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A269">
-        <v>109</v>
-      </c>
-      <c r="B269" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C269" s="3">
-        <v>45598</v>
-      </c>
-      <c r="D269" s="4">
-        <v>0.50347222222222221</v>
-      </c>
-      <c r="E269" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F269" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A270">
-        <v>110</v>
-      </c>
-      <c r="B270" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C270" s="3">
-        <v>45598</v>
-      </c>
-      <c r="D270" s="4">
-        <v>0.50347222222222221</v>
-      </c>
-      <c r="E270" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F270" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A271">
-        <v>111</v>
-      </c>
-      <c r="B271" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C271" s="3">
-        <v>45598</v>
-      </c>
-      <c r="D271" s="4">
-        <v>0.50347222222222221</v>
-      </c>
-      <c r="E271" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F271" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A272">
-        <v>112</v>
-      </c>
-      <c r="B272" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C272" s="3">
-        <v>45598</v>
-      </c>
-      <c r="D272" s="4">
-        <v>0.50347222222222221</v>
-      </c>
-      <c r="E272" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F272" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A273">
-        <v>113</v>
-      </c>
-      <c r="B273" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C273" s="3">
-        <v>45598</v>
-      </c>
-      <c r="D273" s="4">
-        <v>0.50347222222222221</v>
-      </c>
-      <c r="E273" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F273" t="s">
-        <v>22</v>
-      </c>
+      <c r="B256" s="2"/>
+      <c r="C256" s="3"/>
+      <c r="D256" s="4"/>
+      <c r="E256" s="2"/>
+    </row>
+    <row r="257" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B257" s="2"/>
+      <c r="C257" s="3"/>
+      <c r="D257" s="4"/>
+      <c r="E257" s="2"/>
+    </row>
+    <row r="258" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B258" s="2"/>
+      <c r="C258" s="3"/>
+      <c r="D258" s="4"/>
+      <c r="E258" s="2"/>
+    </row>
+    <row r="259" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B259" s="2"/>
+      <c r="C259" s="3"/>
+      <c r="D259" s="4"/>
+      <c r="E259" s="2"/>
+    </row>
+    <row r="260" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B260" s="2"/>
+      <c r="C260" s="3"/>
+      <c r="D260" s="4"/>
+      <c r="E260" s="2"/>
+    </row>
+    <row r="261" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B261" s="2"/>
+      <c r="C261" s="3"/>
+      <c r="D261" s="4"/>
+      <c r="E261" s="2"/>
+    </row>
+    <row r="262" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B262" s="2"/>
+      <c r="C262" s="3"/>
+      <c r="D262" s="4"/>
+      <c r="E262" s="2"/>
+    </row>
+    <row r="263" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B263" s="2"/>
+      <c r="C263" s="3"/>
+      <c r="D263" s="4"/>
+      <c r="E263" s="2"/>
+    </row>
+    <row r="264" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B264" s="2"/>
+      <c r="C264" s="3"/>
+      <c r="D264" s="4"/>
+      <c r="E264" s="2"/>
+    </row>
+    <row r="265" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B265" s="2"/>
+      <c r="C265" s="3"/>
+      <c r="D265" s="4"/>
+      <c r="E265" s="2"/>
+    </row>
+    <row r="266" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B266" s="2"/>
+      <c r="C266" s="3"/>
+      <c r="D266" s="4"/>
+      <c r="E266" s="2"/>
+    </row>
+    <row r="267" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B267" s="2"/>
+      <c r="C267" s="3"/>
+      <c r="D267" s="4"/>
+      <c r="E267" s="2"/>
+    </row>
+    <row r="268" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B268" s="2"/>
+      <c r="C268" s="3"/>
+      <c r="D268" s="4"/>
+      <c r="E268" s="2"/>
+    </row>
+    <row r="269" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B269" s="2"/>
+      <c r="C269" s="3"/>
+      <c r="D269" s="4"/>
+      <c r="E269" s="2"/>
+    </row>
+    <row r="270" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B270" s="2"/>
+      <c r="C270" s="3"/>
+      <c r="D270" s="4"/>
+      <c r="E270" s="2"/>
+    </row>
+    <row r="271" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B271" s="2"/>
+      <c r="C271" s="3"/>
+      <c r="D271" s="4"/>
+      <c r="E271" s="2"/>
+    </row>
+    <row r="272" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B272" s="2"/>
+      <c r="C272" s="3"/>
+      <c r="D272" s="4"/>
+      <c r="E272" s="2"/>
+    </row>
+    <row r="273" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B273" s="2"/>
+      <c r="C273" s="3"/>
+      <c r="D273" s="4"/>
+      <c r="E273" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
